--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -4432,7 +4432,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17540" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="15960" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,15 @@
     <sheet name="EditManajemenPenghuniBaru" sheetId="22" r:id="rId18"/>
     <sheet name="tambahBlokdanKamar" sheetId="17" r:id="rId19"/>
     <sheet name="editBlokdanKamar" sheetId="19" r:id="rId20"/>
+    <sheet name="ManajemenKamarIndex" sheetId="23" r:id="rId21"/>
+    <sheet name="ManajemenKamarCari" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="285">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -840,6 +842,54 @@
   </si>
   <si>
     <t xml:space="preserve"> edt</t>
+  </si>
+  <si>
+    <t>Namaindex</t>
+  </si>
+  <si>
+    <t>NoRegisindex</t>
+  </si>
+  <si>
+    <t>SemuaIndex</t>
+  </si>
+  <si>
+    <t>StatusIndex</t>
+  </si>
+  <si>
+    <t>namaIndex</t>
+  </si>
+  <si>
+    <t>noregisIndex</t>
+  </si>
+  <si>
+    <t>CAH BIN A</t>
+  </si>
+  <si>
+    <t>Ditolak</t>
+  </si>
+  <si>
+    <t>filterColumnCari</t>
+  </si>
+  <si>
+    <t>NamaCari</t>
+  </si>
+  <si>
+    <t>NoRegisCari</t>
+  </si>
+  <si>
+    <t>SemuaCari</t>
+  </si>
+  <si>
+    <t>KejahatanCari</t>
+  </si>
+  <si>
+    <t>namaCari</t>
+  </si>
+  <si>
+    <t>noregisCari</t>
+  </si>
+  <si>
+    <t>semuaCari</t>
   </si>
 </sst>
 </file>
@@ -848,9 +898,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -861,16 +911,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF606266"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF606266"/>
-      <name val="Roboto"/>
       <charset val="134"/>
     </font>
     <font>
@@ -890,14 +940,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -913,9 +1001,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,69 +1024,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,14 +1041,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,8 +1062,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,13 +1093,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,13 +1147,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="1" tint="0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,19 +1177,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,6 +1213,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1151,61 +1249,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,25 +1285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,19 +1303,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,6 +1651,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1612,21 +1688,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1648,20 +1709,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1684,8 +1734,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1693,163 +1743,166 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1858,73 +1911,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2276,262 +2329,262 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="51" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="52" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="51" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="54" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="60">
+      <c r="A2" s="63">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="34"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="34"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="34"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="34"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="34"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="34"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="34"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="35"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2611,7 +2664,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="62"/>
+      <c r="D20" s="65"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2619,7 +2672,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="62"/>
+      <c r="D21" s="65"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2627,7 +2680,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="62"/>
+      <c r="D22" s="65"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2635,7 +2688,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="62"/>
+      <c r="D23" s="65"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2643,7 +2696,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="62"/>
+      <c r="D24" s="65"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2651,7 +2704,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="62"/>
+      <c r="D25" s="65"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2659,7 +2712,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="62"/>
+      <c r="D26" s="65"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2667,7 +2720,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="62"/>
+      <c r="D27" s="65"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2675,7 +2728,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="62"/>
+      <c r="D28" s="65"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -3395,126 +3448,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="39" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="11">
         <v>2</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="11">
         <v>3</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="40" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3611,7 +3664,7 @@
       <c r="I2" t="s">
         <v>193</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
@@ -3643,7 +3696,7 @@
       <c r="I3" t="s">
         <v>198</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="33" t="s">
         <v>199</v>
       </c>
       <c r="K3" t="s">
@@ -3675,7 +3728,7 @@
       <c r="I4" t="s">
         <v>201</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="33" t="s">
         <v>202</v>
       </c>
       <c r="K4" t="s">
@@ -3707,7 +3760,7 @@
       <c r="I5" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="33" t="s">
         <v>204</v>
       </c>
       <c r="K5" t="s">
@@ -3745,147 +3798,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="31" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:10">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="11" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3931,162 +3984,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="31" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="11" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4135,288 +4188,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="32">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="11">
         <v>10</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="11">
         <v>1</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="11">
         <v>10</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="11">
         <v>30</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="8">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="32">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="11">
         <v>15</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="11">
         <v>2</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="11">
         <v>15</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="11">
         <v>33</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="8">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="32">
         <v>3</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="11">
         <v>14</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="11">
         <v>3</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="11">
         <v>14</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="11">
         <v>43</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="8">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="32">
         <v>2</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="11">
         <v>12</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="11">
         <v>4</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="11">
         <v>12</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="11">
         <v>23</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="11">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
+      <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
+      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
-      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
-      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
-      <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
-      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4431,294 +4484,294 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="51" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="51" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="52" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="54" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="54" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
     <col min="9" max="9" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="56">
+      <c r="A2" s="59">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4738,8 +4791,8 @@
   <sheetPr/>
   <dimension ref="B1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -4767,420 +4820,417 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.75" spans="2:22">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="28" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="8">
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="8">
         <v>10</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="8">
         <v>1</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="25">
         <v>10</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="8">
         <v>30</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="V2" s="26">
+      <c r="V2" s="29">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="10">
         <v>1</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="10">
         <v>15</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="10">
         <v>2</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="26">
         <v>15</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="10">
         <v>33</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="30">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="11">
         <v>3</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="10">
         <v>3</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="10">
         <v>14</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="10">
         <v>3</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="26">
         <v>14</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="10">
         <v>43</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="30">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="10">
         <v>2</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="10">
         <v>12</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="10">
         <v>4</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="26">
         <v>12</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="10">
         <v>23</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="30">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="14.75" spans="2:22">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="20">
         <v>2</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="20">
         <v>12</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="20">
         <v>5</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="27">
         <v>15</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="20">
         <v>23</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="18">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+      <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
+      <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
-      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
-      <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
-      <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
-      <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
-      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
       <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
@@ -5188,8 +5238,249 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
       <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
-      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="19.78125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.0078125" customWidth="1"/>
+    <col min="5" max="5" width="19.2734375" customWidth="1"/>
+    <col min="6" max="6" width="20.96875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="2:6">
+      <c r="B4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
+      <formula1>"Diizinkan,Perbaikan,Dalam Proses,Ditolak,Semua"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"namaIndex,noregisIndex,semuaIndex"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="24.2109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.2890625" customWidth="1"/>
+    <col min="5" max="5" width="23.703125" customWidth="1"/>
+    <col min="6" max="6" width="33.984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"namaCari,noregisCari,semuaCari"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5215,7 +5506,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5278,7 +5569,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5349,192 +5640,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="53" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="34">
+      <c r="A2" s="37">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>50120</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="34"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>50120</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="34"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>50120</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="34"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>50120</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="34"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="11">
         <v>50120</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="35"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8">
+      <c r="A7" s="38"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11">
         <v>50120</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="52" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="8">
+      <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5569,7 +5860,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>70</v>
       </c>
       <c r="B1" t="s">
@@ -5604,7 +5895,7 @@
       <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="47">
         <v>3434</v>
       </c>
       <c r="E2" t="s">
@@ -5627,7 +5918,7 @@
       <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>50120</v>
       </c>
       <c r="E3" t="s">
@@ -5644,7 +5935,7 @@
       <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>50120</v>
       </c>
       <c r="E4" t="s">
@@ -5661,7 +5952,7 @@
       <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>50120</v>
       </c>
       <c r="E5" t="s">
@@ -5712,248 +6003,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="39">
+      <c r="A2" s="42">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="40" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="43">
         <v>3460</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="43">
         <v>123</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="16" ht="14.75"/>
     <row r="17" ht="14.75" spans="1:2">
       <c r="A17" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="44"/>
     </row>
     <row r="18" ht="14.75" spans="1:2">
       <c r="A18" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="45"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -6019,7 +6310,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="41" t="s">
         <v>113</v>
       </c>
       <c r="G2" t="s">

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15960" firstSheet="17" activeTab="21"/>
+    <workbookView windowWidth="28000" windowHeight="13760" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="284">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -121,16 +121,13 @@
     <t>Wildan Cahyono</t>
   </si>
   <si>
-    <t>sk001</t>
+    <t>SK/002/DIV</t>
   </si>
   <si>
     <t>EDIT</t>
   </si>
   <si>
     <t>EYONO BIN CAS</t>
-  </si>
-  <si>
-    <t>SK/002/DIV</t>
   </si>
   <si>
     <t>SK/003/DIV</t>
@@ -897,9 +894,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -940,8 +937,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,24 +952,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,7 +992,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,32 +1014,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,10 +1029,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1054,24 +1044,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,6 +1053,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,7 +1150,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,13 +1168,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,91 +1234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,13 +1252,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,31 +1300,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,28 +1648,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1707,15 +1696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1734,169 +1714,186 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1950,7 +1947,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2334,12 +2330,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="54" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="55" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="54" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="53" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
@@ -2354,13 +2350,13 @@
       <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
@@ -2371,13 +2367,13 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="63">
+      <c r="A2" s="62">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2401,7 +2397,7 @@
       <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="33" t="s">
@@ -2425,7 +2421,7 @@
       <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -2449,7 +2445,7 @@
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -2473,7 +2469,7 @@
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="59" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -2497,7 +2493,7 @@
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2521,7 +2517,7 @@
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -2545,7 +2541,7 @@
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -2569,13 +2565,13 @@
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2664,7 +2660,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="65"/>
+      <c r="D20" s="64"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2672,7 +2668,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="65"/>
+      <c r="D21" s="64"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2680,7 +2676,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="65"/>
+      <c r="D22" s="64"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2688,7 +2684,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="65"/>
+      <c r="D23" s="64"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2696,7 +2692,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="65"/>
+      <c r="D24" s="64"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2704,7 +2700,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="65"/>
+      <c r="D25" s="64"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2712,7 +2708,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="65"/>
+      <c r="D26" s="64"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2720,7 +2716,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="65"/>
+      <c r="D27" s="64"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2728,7 +2724,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="65"/>
+      <c r="D28" s="64"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -2932,82 +2928,82 @@
   <sheetData>
     <row r="1" spans="3:8">
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>121</v>
       </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
         <v>124</v>
       </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
         <v>126</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3034,44 +3030,44 @@
   <sheetData>
     <row r="1" spans="3:6">
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>129</v>
-      </c>
-      <c r="F1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
         <v>131</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>132</v>
-      </c>
-      <c r="F2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3100,82 +3096,82 @@
   <sheetData>
     <row r="1" spans="3:8">
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>121</v>
       </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
         <v>124</v>
       </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
         <v>126</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3202,82 +3198,82 @@
   <sheetData>
     <row r="1" spans="3:8">
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3310,83 +3306,83 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>145</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>146</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" t="s">
-        <v>148</v>
-      </c>
       <c r="M1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
         <v>150</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>151</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" t="s">
         <v>152</v>
       </c>
-      <c r="H2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>153</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>154</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>155</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>156</v>
-      </c>
-      <c r="M2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3395,31 +3391,31 @@
         <v>2022</v>
       </c>
       <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
         <v>150</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>151</v>
       </c>
-      <c r="G3" t="s">
-        <v>152</v>
-      </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
         <v>159</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>160</v>
       </c>
-      <c r="K3" t="s">
-        <v>161</v>
-      </c>
       <c r="L3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" t="s">
         <v>156</v>
-      </c>
-      <c r="M3" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3449,138 +3445,138 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>167</v>
-      </c>
       <c r="I1" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="F2" s="11">
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
       <c r="B5" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="40" t="s">
         <v>172</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"status,blok,jumlahlantai,semua"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 F6 D2:D4 H2:H5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
@@ -3609,162 +3605,162 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>181</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>183</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>184</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>186</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>188</v>
-      </c>
-      <c r="K1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" t="s">
         <v>190</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>191</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>192</v>
-      </c>
-      <c r="I2" t="s">
-        <v>193</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
         <v>195</v>
-      </c>
-      <c r="C3" t="s">
-        <v>196</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" t="s">
         <v>197</v>
       </c>
-      <c r="H3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="J3" s="33" t="s">
-        <v>199</v>
-      </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" t="s">
         <v>190</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>191</v>
       </c>
-      <c r="H4" t="s">
-        <v>192</v>
-      </c>
       <c r="I4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>202</v>
-      </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" t="s">
         <v>190</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>191</v>
       </c>
-      <c r="H5" t="s">
-        <v>192</v>
-      </c>
       <c r="I5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>204</v>
-      </c>
       <c r="K5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3799,147 +3795,147 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>209</v>
-      </c>
       <c r="I1" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:10">
       <c r="B5" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3947,11 +3943,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"status,blok,jumlahlantai,semua"</formula1>
@@ -3985,162 +3981,162 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>221</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="I5" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4189,53 +4185,53 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4244,25 +4240,25 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="F2" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="32">
         <v>2</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="J2" s="11">
         <v>10</v>
@@ -4274,16 +4270,16 @@
         <v>10</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O2" s="11">
         <v>30</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q2" s="11">
         <v>30</v>
@@ -4295,25 +4291,25 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="J3" s="11">
         <v>15</v>
@@ -4325,16 +4321,16 @@
         <v>15</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O3" s="11">
         <v>33</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q3" s="11">
         <v>14</v>
@@ -4346,25 +4342,25 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>249</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>250</v>
       </c>
       <c r="G4" s="32">
         <v>3</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="J4" s="11">
         <v>14</v>
@@ -4376,16 +4372,16 @@
         <v>14</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O4" s="11">
         <v>43</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="11">
         <v>23</v>
@@ -4397,25 +4393,25 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>254</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>255</v>
       </c>
       <c r="G5" s="32">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J5" s="11">
         <v>12</v>
@@ -4427,16 +4423,16 @@
         <v>12</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O5" s="11">
         <v>23</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="11">
         <v>20</v>
@@ -4450,8 +4446,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
-      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
@@ -4459,17 +4458,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
+      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
-      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4484,18 +4480,18 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="54" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="54" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="54" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="55" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="53" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
     <col min="9" max="9" width="29.5546875" customWidth="1"/>
@@ -4505,22 +4501,22 @@
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -4531,16 +4527,16 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="59">
+      <c r="A2" s="58">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -4564,10 +4560,10 @@
       <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="33" t="s">
@@ -4591,10 +4587,10 @@
       <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="60" t="s">
+      <c r="C4" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="33" t="s">
@@ -4618,10 +4614,10 @@
       <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="60" t="s">
+      <c r="C5" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -4645,10 +4641,10 @@
       <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="60" t="s">
+      <c r="C6" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="33" t="s">
@@ -4672,10 +4668,10 @@
       <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="60" t="s">
+      <c r="C7" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -4699,10 +4695,10 @@
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="60" t="s">
+      <c r="C8" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="59" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="33" t="s">
@@ -4726,10 +4722,10 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="60" t="s">
+      <c r="C9" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="59" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -4753,10 +4749,10 @@
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="60" t="s">
+      <c r="C10" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -4821,108 +4817,108 @@
   <sheetData>
     <row r="1" ht="14.75" spans="2:22">
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="Q1" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="R1" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="S1" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="28" t="s">
         <v>235</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="8">
         <v>2</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="O2" s="8">
         <v>10</v>
@@ -4934,16 +4930,16 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T2" s="8">
         <v>30</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V2" s="29">
         <v>30</v>
@@ -4951,43 +4947,43 @@
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L3" s="10">
         <v>1</v>
       </c>
       <c r="M3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="O3" s="10">
         <v>15</v>
@@ -4999,16 +4995,16 @@
         <v>15</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T3" s="10">
         <v>33</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V3" s="30">
         <v>14</v>
@@ -5016,43 +5012,43 @@
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="L4" s="10">
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="O4" s="10">
         <v>14</v>
@@ -5064,16 +5060,16 @@
         <v>14</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T4" s="10">
         <v>43</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V4" s="30">
         <v>23</v>
@@ -5081,43 +5077,43 @@
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J5" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="L5" s="10">
         <v>2</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O5" s="10">
         <v>12</v>
@@ -5129,16 +5125,16 @@
         <v>12</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T5" s="10">
         <v>23</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V5" s="30">
         <v>20</v>
@@ -5146,43 +5142,43 @@
     </row>
     <row r="6" ht="14.75" spans="2:22">
       <c r="B6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J6" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>255</v>
       </c>
       <c r="L6" s="20">
         <v>2</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O6" s="20">
         <v>12</v>
@@ -5194,16 +5190,16 @@
         <v>15</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T6" s="20">
         <v>23</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V6" s="18">
         <v>20</v>
@@ -5211,14 +5207,8 @@
     </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
-      <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
       <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
-      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
@@ -5226,23 +5216,29 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+      <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
       <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
       <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
-      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5270,58 +5266,58 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:6">
       <c r="B3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5330,15 +5326,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5347,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -5358,10 +5354,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5383,7 +5379,7 @@
   <sheetPr/>
   <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -5398,52 +5394,52 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5452,12 +5448,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5466,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="4:5">
@@ -5474,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5510,13 +5506,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5524,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -5535,7 +5531,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -5573,16 +5569,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5590,26 +5586,26 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5640,29 +5636,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="52" t="s">
         <v>58</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5670,121 +5666,121 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="11">
         <v>50120</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="37"/>
       <c r="B3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="11">
         <v>50120</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="37"/>
       <c r="B4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="D4" s="11">
         <v>50120</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="37"/>
       <c r="B5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="11">
         <v>50120</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="37"/>
       <c r="B6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="11">
         <v>50120</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
@@ -5795,30 +5791,30 @@
         <v>50120</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="G7" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5861,28 +5857,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:8">
@@ -5890,76 +5886,76 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3">
+        <v>3434</v>
+      </c>
+      <c r="E2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="47">
-        <v>3434</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="11">
         <v>50120</v>
       </c>
       <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
         <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="11">
         <v>50120</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="11">
         <v>50120</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6004,34 +6000,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6039,17 +6035,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>96</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>97</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -6057,17 +6053,17 @@
     <row r="3" spans="1:10">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -6075,23 +6071,23 @@
     <row r="4" spans="1:10">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="43">
         <v>3460</v>
       </c>
       <c r="E4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>100</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>101</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -6099,25 +6095,25 @@
     <row r="5" spans="1:10">
       <c r="A5" s="11"/>
       <c r="B5" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="43">
         <v>123</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="H5" s="43" t="s">
         <v>103</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>104</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -6125,7 +6121,7 @@
     <row r="6" spans="1:10">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -6138,7 +6134,7 @@
     <row r="7" spans="1:10">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -6236,13 +6232,13 @@
     <row r="16" ht="14.75"/>
     <row r="17" ht="14.75" spans="1:2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="44"/>
     </row>
     <row r="18" ht="14.75" spans="1:2">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="45"/>
     </row>
@@ -6279,42 +6275,42 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
         <v>113</v>
-      </c>
-      <c r="G2" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6342,36 +6338,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>117</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13760" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="13760" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="287">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -193,58 +193,67 @@
     <t>jenisKejahatan</t>
   </si>
   <si>
+    <t>nama_lengkapindex</t>
+  </si>
+  <si>
+    <t>nomor_indukindex</t>
+  </si>
+  <si>
+    <t>NomorSuratindex</t>
+  </si>
+  <si>
+    <t>Pendaftarindex</t>
+  </si>
+  <si>
+    <t>semuaindex</t>
+  </si>
+  <si>
+    <t>statusColumnindex</t>
+  </si>
+  <si>
+    <t>semua</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Keluar Keamanan</t>
+  </si>
+  <si>
+    <t>nomor induk</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>Nomor Surat Penetapan</t>
+  </si>
+  <si>
+    <t>Keluar Portir</t>
+  </si>
+  <si>
+    <t>Pendaftar</t>
+  </si>
+  <si>
+    <t>Masuk Portir</t>
+  </si>
+  <si>
+    <t>NamaLengkap</t>
+  </si>
+  <si>
+    <t>KeluarKeamanan</t>
+  </si>
+  <si>
+    <t>NamaWbp</t>
+  </si>
+  <si>
+    <t>xr</t>
+  </si>
+  <si>
     <t>filterColumn</t>
-  </si>
-  <si>
-    <t>nama_lengkap</t>
-  </si>
-  <si>
-    <t>nomor_induk</t>
-  </si>
-  <si>
-    <t>NomorSurat</t>
-  </si>
-  <si>
-    <t>Pendaftar</t>
-  </si>
-  <si>
-    <t>semua</t>
-  </si>
-  <si>
-    <t>statusColumn</t>
-  </si>
-  <si>
-    <t>Nomor Surat Penetapan</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Keluar Keamanan</t>
-  </si>
-  <si>
-    <t>nomor induk</t>
-  </si>
-  <si>
-    <t>Keluar Portir</t>
-  </si>
-  <si>
-    <t>Masuk Portir</t>
-  </si>
-  <si>
-    <t>KeluarKeamanan</t>
-  </si>
-  <si>
-    <t>NamaWbp</t>
-  </si>
-  <si>
-    <t>xr</t>
   </si>
   <si>
     <t>NamaWBP</t>
@@ -2931,79 +2940,79 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
         <v>124</v>
       </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3033,41 +3042,41 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3099,79 +3108,79 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
         <v>124</v>
       </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3201,79 +3210,79 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3306,40 +3315,40 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -3347,42 +3356,42 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3391,31 +3400,31 @@
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" t="s">
         <v>158</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>159</v>
-      </c>
-      <c r="K3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3445,126 +3454,126 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="37" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F2" s="11">
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="37" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
       <c r="B5" s="38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3605,162 +3614,162 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" t="s">
         <v>196</v>
-      </c>
-      <c r="H3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3795,147 +3804,147 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:10">
       <c r="B5" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3981,162 +3990,162 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="31" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4185,53 +4194,53 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4240,13 +4249,13 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>49</v>
@@ -4255,10 +4264,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J2" s="11">
         <v>10</v>
@@ -4270,7 +4279,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>49</v>
@@ -4279,7 +4288,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q2" s="11">
         <v>30</v>
@@ -4291,25 +4300,25 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J3" s="11">
         <v>15</v>
@@ -4321,16 +4330,16 @@
         <v>15</v>
       </c>
       <c r="M3" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="N3" s="31" t="s">
         <v>245</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>242</v>
       </c>
       <c r="O3" s="11">
         <v>33</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q3" s="11">
         <v>14</v>
@@ -4342,25 +4351,25 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G4" s="32">
         <v>3</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J4" s="11">
         <v>14</v>
@@ -4372,16 +4381,16 @@
         <v>14</v>
       </c>
       <c r="M4" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="N4" s="31" t="s">
         <v>252</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>249</v>
       </c>
       <c r="O4" s="11">
         <v>43</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="11">
         <v>23</v>
@@ -4393,25 +4402,25 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G5" s="32">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J5" s="11">
         <v>12</v>
@@ -4423,16 +4432,16 @@
         <v>12</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O5" s="11">
         <v>23</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="11">
         <v>20</v>
@@ -4480,7 +4489,7 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4817,96 +4826,96 @@
   <sheetData>
     <row r="1" ht="14.75" spans="2:22">
       <c r="B1" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>49</v>
@@ -4915,10 +4924,10 @@
         <v>2</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O2" s="8">
         <v>10</v>
@@ -4930,7 +4939,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>49</v>
@@ -4939,7 +4948,7 @@
         <v>30</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="V2" s="29">
         <v>30</v>
@@ -4947,43 +4956,43 @@
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L3" s="10">
         <v>1</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O3" s="10">
         <v>15</v>
@@ -4995,16 +5004,16 @@
         <v>15</v>
       </c>
       <c r="R3" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="T3" s="10">
         <v>33</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="V3" s="30">
         <v>14</v>
@@ -5012,43 +5021,43 @@
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L4" s="10">
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O4" s="10">
         <v>14</v>
@@ -5060,16 +5069,16 @@
         <v>14</v>
       </c>
       <c r="R4" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="T4" s="10">
         <v>43</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="V4" s="30">
         <v>23</v>
@@ -5077,43 +5086,43 @@
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L5" s="10">
         <v>2</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O5" s="10">
         <v>12</v>
@@ -5125,16 +5134,16 @@
         <v>12</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="T5" s="10">
         <v>23</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="V5" s="30">
         <v>20</v>
@@ -5142,43 +5151,43 @@
     </row>
     <row r="6" ht="14.75" spans="2:22">
       <c r="B6" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L6" s="20">
         <v>2</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O6" s="20">
         <v>12</v>
@@ -5190,16 +5199,16 @@
         <v>15</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="T6" s="20">
         <v>23</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="V6" s="18">
         <v>20</v>
@@ -5269,55 +5278,55 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5326,15 +5335,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5343,10 +5352,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -5354,10 +5363,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5394,52 +5403,52 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5448,12 +5457,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5462,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="4:5">
@@ -5470,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5619,15 +5628,15 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="25.2578125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.7890625" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.578125" customWidth="1"/>
     <col min="6" max="6" width="13.5390625" customWidth="1"/>
@@ -5640,25 +5649,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="G1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="52" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5666,70 +5675,70 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D2" s="11">
         <v>50120</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="37"/>
       <c r="B3" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" s="11">
         <v>50120</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="37"/>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4" s="11">
         <v>50120</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>65</v>
@@ -5738,49 +5747,49 @@
     <row r="5" spans="1:8">
       <c r="A5" s="37"/>
       <c r="B5" s="11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D5" s="11">
         <v>50120</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="37"/>
       <c r="B6" s="11" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D6" s="11">
         <v>50120</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
@@ -5791,13 +5800,13 @@
         <v>50120</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>65</v>
@@ -5806,7 +5815,7 @@
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
       <c r="A12" s="49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5814,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5826,9 +5835,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Masuk Portir,Keluar Keamanan,Keluar Portir"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
+      <formula1>"Nomor Surat Penetapan,nomor induk,Nomor Surat Penetapan,Pendaftar,NamaLengkap,semua"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5857,28 +5869,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:8">
@@ -5886,76 +5898,76 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3">
         <v>3434</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" s="11">
         <v>50120</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" s="11">
         <v>50120</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
       </c>
       <c r="D5" s="11">
         <v>50120</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6000,34 +6012,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6035,17 +6047,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -6053,17 +6065,17 @@
     <row r="3" spans="1:10">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -6071,23 +6083,23 @@
     <row r="4" spans="1:10">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D4" s="43">
         <v>3460</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -6095,25 +6107,25 @@
     <row r="5" spans="1:10">
       <c r="A5" s="11"/>
       <c r="B5" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D5" s="43">
         <v>123</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -6121,7 +6133,7 @@
     <row r="6" spans="1:10">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -6134,7 +6146,7 @@
     <row r="7" spans="1:10">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -6232,13 +6244,13 @@
     <row r="16" ht="14.75"/>
     <row r="17" ht="14.75" spans="1:2">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B17" s="44"/>
     </row>
     <row r="18" ht="14.75" spans="1:2">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B18" s="45"/>
     </row>
@@ -6275,42 +6287,42 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6338,10 +6350,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>50</v>
@@ -6353,21 +6365,21 @@
         <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13760" firstSheet="2" activeTab="4"/>
+    <workbookView windowHeight="16760" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="294">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -253,115 +253,136 @@
     <t>xr</t>
   </si>
   <si>
+    <t>filterColumnIndex</t>
+  </si>
+  <si>
+    <t>NamaWBPIndex</t>
+  </si>
+  <si>
+    <t>NomorIndukIndex</t>
+  </si>
+  <si>
+    <t>KeperluanIndex</t>
+  </si>
+  <si>
+    <t>inputKategoriIndex</t>
+  </si>
+  <si>
+    <t>filterTanggalMasukIndex</t>
+  </si>
+  <si>
+    <t>filterTanggalKeluarIndex</t>
+  </si>
+  <si>
+    <t>nama lengkap</t>
+  </si>
+  <si>
+    <t>Rehan</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Tamu Dinas</t>
+  </si>
+  <si>
+    <t>24/10/2022'</t>
+  </si>
+  <si>
+    <t>14/11/2022'</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>nama lenkap</t>
+  </si>
+  <si>
+    <t>Kunjungan Onsite</t>
+  </si>
+  <si>
+    <t>keperluan</t>
+  </si>
+  <si>
+    <t>Kunjungan Online</t>
+  </si>
+  <si>
+    <t>inputKategoritambah</t>
+  </si>
+  <si>
+    <t>NamaAtauNiptambah</t>
+  </si>
+  <si>
+    <t>inputNiptambah</t>
+  </si>
+  <si>
+    <t>inputNamatambah</t>
+  </si>
+  <si>
+    <t>inputJabatantambah</t>
+  </si>
+  <si>
+    <t>InputInstansitambah</t>
+  </si>
+  <si>
+    <t>inputKeperluantambah</t>
+  </si>
+  <si>
+    <t>KunjunganOnsitetambah</t>
+  </si>
+  <si>
+    <t>KunjunganOnline</t>
+  </si>
+  <si>
+    <t>Pegawai</t>
+  </si>
+  <si>
+    <t>Nabila</t>
+  </si>
+  <si>
+    <t>Suri suryanto</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>POLRES BANDUNG</t>
+  </si>
+  <si>
+    <t>Mengontrol wbp</t>
+  </si>
+  <si>
+    <t>tambah</t>
+  </si>
+  <si>
+    <t>Alya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelaksana </t>
+  </si>
+  <si>
+    <t>POLDA JABAR</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>CCCC</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>Menemui Wbp Atas nama Ajis</t>
+  </si>
+  <si>
     <t>filterColumn</t>
   </si>
   <si>
     <t>NamaWBP</t>
-  </si>
-  <si>
-    <t>NomorInduk</t>
-  </si>
-  <si>
-    <t>Keperluan</t>
-  </si>
-  <si>
-    <t>inputKategori</t>
-  </si>
-  <si>
-    <t>filterTanggalMasuk</t>
-  </si>
-  <si>
-    <t>filterTanggalKeluar</t>
-  </si>
-  <si>
-    <t>kategori</t>
-  </si>
-  <si>
-    <t>Rehan</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Tamu Dinas</t>
-  </si>
-  <si>
-    <t>24/10/2022'</t>
-  </si>
-  <si>
-    <t>14/11/2022'</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>nama lenkap</t>
-  </si>
-  <si>
-    <t>Kunjungan Onsite</t>
-  </si>
-  <si>
-    <t>keperluan</t>
-  </si>
-  <si>
-    <t>Kunjungan Online</t>
-  </si>
-  <si>
-    <t>NamaAtauNip</t>
-  </si>
-  <si>
-    <t>inputNip</t>
-  </si>
-  <si>
-    <t>inputNama</t>
-  </si>
-  <si>
-    <t>inputJabatan</t>
-  </si>
-  <si>
-    <t>InputInstansi</t>
-  </si>
-  <si>
-    <t>inputKeperluan</t>
-  </si>
-  <si>
-    <t>KunjunganOnsite</t>
-  </si>
-  <si>
-    <t>KunjunganOnline</t>
-  </si>
-  <si>
-    <t>Pegawai</t>
-  </si>
-  <si>
-    <t>Nabila</t>
-  </si>
-  <si>
-    <t>Mengontrol wbp</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>CCCC</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>POLRES BANDUNG</t>
-  </si>
-  <si>
-    <t>Menemui Wbp Atas nama Ajis</t>
-  </si>
-  <si>
-    <t>Data yang dipilih</t>
-  </si>
-  <si>
-    <t>xr Baca Baris</t>
   </si>
   <si>
     <t>noSurat</t>
@@ -903,10 +924,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -955,22 +976,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,31 +999,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,15 +1021,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,19 +1036,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1069,7 +1052,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,13 +1105,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1135,12 +1156,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1159,109 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1192,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,31 +1336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,13 +1348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,11 +1672,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1670,7 +1691,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,21 +1707,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,23 +1729,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1754,145 +1760,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1902,7 +1917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1950,18 +1965,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2339,12 +2360,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="54" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="53" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="60" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="59" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
@@ -2359,13 +2380,13 @@
       <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="71" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
@@ -2376,13 +2397,13 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="62">
+      <c r="A2" s="68">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="65" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2406,7 +2427,7 @@
       <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="65" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="33" t="s">
@@ -2430,7 +2451,7 @@
       <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="65" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -2454,7 +2475,7 @@
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -2478,7 +2499,7 @@
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -2502,7 +2523,7 @@
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="65" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2526,7 +2547,7 @@
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -2550,7 +2571,7 @@
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -2574,13 +2595,13 @@
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="69" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2669,7 +2690,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="64"/>
+      <c r="D20" s="70"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2677,7 +2698,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="64"/>
+      <c r="D21" s="70"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2685,7 +2706,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="64"/>
+      <c r="D22" s="70"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2693,7 +2714,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="64"/>
+      <c r="D23" s="70"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2701,7 +2722,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="64"/>
+      <c r="D24" s="70"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2709,7 +2730,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="64"/>
+      <c r="D25" s="70"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2717,7 +2738,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="64"/>
+      <c r="D26" s="70"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2725,7 +2746,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="64"/>
+      <c r="D27" s="70"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2733,7 +2754,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="64"/>
+      <c r="D28" s="70"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -2940,79 +2961,79 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3042,13 +3063,13 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="3:6">
@@ -3056,13 +3077,13 @@
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="3:6">
@@ -3070,13 +3091,13 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3108,79 +3129,79 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3210,19 +3231,19 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="3:8">
@@ -3230,19 +3251,19 @@
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="3:8">
@@ -3250,19 +3271,19 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="3:8">
@@ -3270,19 +3291,19 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3315,40 +3336,40 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -3356,42 +3377,42 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3400,31 +3421,31 @@
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="K3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3454,138 +3475,138 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="35" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="37" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F2" s="11">
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="37" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="37" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
       <c r="B5" s="38" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"status,blok,jumlahlantai,semua"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 F6 D2:D4 H2:H5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
@@ -3614,42 +3635,42 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3658,30 +3679,30 @@
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3690,30 +3711,30 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3722,30 +3743,30 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" t="s">
         <v>203</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="K4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3754,22 +3775,22 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3804,36 +3825,36 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="31" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E1" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>169</v>
-      </c>
       <c r="J1" s="31" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>85</v>
@@ -3848,21 +3869,21 @@
         <v>85</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="11" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>85</v>
@@ -3877,21 +3898,21 @@
         <v>85</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="11" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>85</v>
@@ -3906,21 +3927,21 @@
         <v>85</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:10">
       <c r="B5" s="11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>85</v>
@@ -3935,16 +3956,16 @@
         <v>85</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3952,11 +3973,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"status,blok,jumlahlantai,semua"</formula1>
@@ -3990,42 +4011,42 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="31" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E1" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>212</v>
-      </c>
       <c r="G1" s="31" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -4034,30 +4055,30 @@
         <v>85</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -4066,30 +4087,30 @@
         <v>85</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -4098,30 +4119,30 @@
         <v>85</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -4130,22 +4151,22 @@
         <v>85</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4194,53 +4215,53 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="11" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4249,13 +4270,13 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>49</v>
@@ -4264,10 +4285,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="J2" s="11">
         <v>10</v>
@@ -4279,7 +4300,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>49</v>
@@ -4288,7 +4309,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="11">
         <v>30</v>
@@ -4300,25 +4321,25 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="J3" s="11">
         <v>15</v>
@@ -4330,16 +4351,16 @@
         <v>15</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="O3" s="11">
         <v>33</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q3" s="11">
         <v>14</v>
@@ -4351,25 +4372,25 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G4" s="32">
         <v>3</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="J4" s="11">
         <v>14</v>
@@ -4381,16 +4402,16 @@
         <v>14</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="O4" s="11">
         <v>43</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="11">
         <v>23</v>
@@ -4402,25 +4423,25 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G5" s="32">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="J5" s="11">
         <v>12</v>
@@ -4432,16 +4453,16 @@
         <v>12</v>
       </c>
       <c r="M5" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>259</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>252</v>
       </c>
       <c r="O5" s="11">
         <v>23</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="11">
         <v>20</v>
@@ -4458,8 +4479,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
-      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
+      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
@@ -4467,14 +4488,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
-      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4495,12 +4516,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="53" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="53" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="53" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="54" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="59" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="60" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="59" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
     <col min="9" max="9" width="29.5546875" customWidth="1"/>
@@ -4510,22 +4531,22 @@
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="62" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -4536,16 +4557,16 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="58">
+      <c r="A2" s="64">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="65" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -4569,10 +4590,10 @@
       <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="65" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="33" t="s">
@@ -4596,10 +4617,10 @@
       <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="65" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="33" t="s">
@@ -4623,10 +4644,10 @@
       <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="65" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -4650,10 +4671,10 @@
       <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="33" t="s">
@@ -4677,10 +4698,10 @@
       <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="65" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -4704,10 +4725,10 @@
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="33" t="s">
@@ -4731,10 +4752,10 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="65" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -4758,10 +4779,10 @@
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="65" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -4826,96 +4847,96 @@
   <sheetData>
     <row r="1" ht="14.75" spans="2:22">
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>49</v>
@@ -4924,10 +4945,10 @@
         <v>2</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="O2" s="8">
         <v>10</v>
@@ -4939,7 +4960,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>49</v>
@@ -4948,7 +4969,7 @@
         <v>30</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="V2" s="29">
         <v>30</v>
@@ -4956,43 +4977,43 @@
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="9" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L3" s="10">
         <v>1</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="O3" s="10">
         <v>15</v>
@@ -5004,16 +5025,16 @@
         <v>15</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="T3" s="10">
         <v>33</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="V3" s="30">
         <v>14</v>
@@ -5021,43 +5042,43 @@
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L4" s="10">
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="O4" s="10">
         <v>14</v>
@@ -5069,16 +5090,16 @@
         <v>14</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="T4" s="10">
         <v>43</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="V4" s="30">
         <v>23</v>
@@ -5086,43 +5107,43 @@
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="9" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L5" s="10">
         <v>2</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="O5" s="10">
         <v>12</v>
@@ -5134,16 +5155,16 @@
         <v>12</v>
       </c>
       <c r="R5" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="T5" s="10">
         <v>23</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="V5" s="30">
         <v>20</v>
@@ -5154,40 +5175,40 @@
         <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L6" s="20">
         <v>2</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="O6" s="20">
         <v>12</v>
@@ -5199,16 +5220,16 @@
         <v>15</v>
       </c>
       <c r="R6" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="S6" s="20" t="s">
         <v>259</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>252</v>
       </c>
       <c r="T6" s="20">
         <v>23</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="V6" s="18">
         <v>20</v>
@@ -5216,8 +5237,14 @@
     </row>
   </sheetData>
   <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+      <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
       <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
@@ -5225,29 +5252,23 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
+      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
+      <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
       <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
-      <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
-      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
-      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
-      <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5278,24 +5299,24 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5304,15 +5325,15 @@
         <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5321,12 +5342,12 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5338,12 +5359,12 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5355,7 +5376,7 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -5366,7 +5387,7 @@
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5403,27 +5424,27 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5434,10 +5455,10 @@
     </row>
     <row r="3" ht="15.6" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5448,7 +5469,7 @@
     </row>
     <row r="4" ht="15.6" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5462,7 +5483,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5511,7 +5532,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5574,7 +5595,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5628,8 +5649,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -5645,28 +5666,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="58" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5814,15 +5835,15 @@
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="57" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5854,42 +5875,43 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.8046875" customWidth="1"/>
     <col min="2" max="2" width="29.2890625" customWidth="1"/>
+    <col min="3" max="3" width="17.578125" customWidth="1"/>
     <col min="4" max="4" width="14.3203125" customWidth="1"/>
     <col min="5" max="5" width="19.265625" customWidth="1"/>
-    <col min="6" max="6" width="15.2265625" customWidth="1"/>
-    <col min="7" max="8" width="17.578125" customWidth="1"/>
+    <col min="6" max="7" width="22.1328125" customWidth="1"/>
+    <col min="8" max="8" width="22.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="51" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5897,77 +5919,95 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="48">
         <v>3434</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="52" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="47" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="11">
         <v>50120</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="47" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+      <c r="G3" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="47" t="s">
         <v>85</v>
       </c>
       <c r="D4" s="11">
         <v>50120</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="47" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
+      <c r="G4" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" ht="14.75" spans="2:8">
+      <c r="B5" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>50120</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="50" t="s">
         <v>89</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5990,149 +6030,159 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="B1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="13.5390625" customWidth="1"/>
     <col min="2" max="2" width="20.6953125" customWidth="1"/>
     <col min="3" max="3" width="34.109375" customWidth="1"/>
     <col min="4" max="4" width="18.2265625" customWidth="1"/>
-    <col min="5" max="5" width="12.234375" customWidth="1"/>
-    <col min="6" max="6" width="10.6796875" customWidth="1"/>
+    <col min="5" max="5" width="26.5625" customWidth="1"/>
+    <col min="6" max="6" width="17.3125" customWidth="1"/>
     <col min="7" max="7" width="18.2265625" customWidth="1"/>
     <col min="8" max="8" width="24.2109375" customWidth="1"/>
     <col min="9" max="9" width="16.5390625" customWidth="1"/>
     <col min="10" max="10" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="31" t="s">
+    <row r="1" spans="2:10">
+      <c r="B1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="H1" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="I1" s="36" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="42">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="J1" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="43" t="s">
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>100</v>
       </c>
+      <c r="D2" s="11">
+        <v>9943238</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
+      <c r="J2" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="43" t="s">
-        <v>100</v>
+      <c r="D3" s="11">
+        <v>44324</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>104</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="43">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="42">
         <v>3460</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="43" t="s">
+      <c r="E4" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="42">
+        <v>123</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="43">
-        <v>123</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>106</v>
+      <c r="H5" s="42" t="s">
+        <v>113</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="37" t="s">
         <v>87</v>
       </c>
       <c r="C6" s="11"/>
@@ -6141,118 +6191,20 @@
       <c r="F6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" ht="14.75" spans="2:10">
+      <c r="B7" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="16" ht="14.75"/>
-    <row r="17" ht="14.75" spans="1:2">
-      <c r="A17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="44"/>
-    </row>
-    <row r="18" ht="14.75" spans="1:2">
-      <c r="A18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="45"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -6287,42 +6239,42 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6350,10 +6302,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>50</v>
@@ -6370,10 +6322,10 @@
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="3" activeTab="6"/>
+    <workbookView windowHeight="16760" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="308">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -379,94 +379,136 @@
     <t>Menemui Wbp Atas nama Ajis</t>
   </si>
   <si>
+    <t>NamaWBPindex</t>
+  </si>
+  <si>
+    <t>noSuratindex</t>
+  </si>
+  <si>
+    <t>lamaPengasinganindex</t>
+  </si>
+  <si>
+    <t>tanggalMulaiindex</t>
+  </si>
+  <si>
+    <t>tanggalKembaliindex</t>
+  </si>
+  <si>
+    <t>semuaIndex</t>
+  </si>
+  <si>
+    <t>jhoni</t>
+  </si>
+  <si>
+    <t>Srt</t>
+  </si>
+  <si>
+    <t>19/11/2022'</t>
+  </si>
+  <si>
+    <t>21/11/2022'</t>
+  </si>
+  <si>
+    <t>Baca baris</t>
+  </si>
+  <si>
     <t>filterColumn</t>
   </si>
   <si>
-    <t>NamaWBP</t>
+    <t>DAISY BINTI DAISYO</t>
+  </si>
+  <si>
+    <t>Narkotika</t>
+  </si>
+  <si>
+    <t>filterColumnTambah</t>
+  </si>
+  <si>
+    <t>namaTambah</t>
+  </si>
+  <si>
+    <t>noRegistrasi</t>
+  </si>
+  <si>
+    <t>noSuratTambah</t>
+  </si>
+  <si>
+    <t>tanggalSuratTambah</t>
+  </si>
+  <si>
+    <t>tanggalMulaiTambah</t>
+  </si>
+  <si>
+    <t>lamaPengasinganTambah</t>
+  </si>
+  <si>
+    <t>alasanTambah</t>
+  </si>
+  <si>
+    <t>ZIDAN BIN MORENA</t>
+  </si>
+  <si>
+    <t>srt001/01</t>
+  </si>
+  <si>
+    <t>24/11/2022'</t>
+  </si>
+  <si>
+    <t>berantem</t>
+  </si>
+  <si>
+    <t>MITASUK BINTI -</t>
+  </si>
+  <si>
+    <t>srt001/02</t>
+  </si>
+  <si>
+    <t>srt001/03</t>
+  </si>
+  <si>
+    <t>srt001/04</t>
+  </si>
+  <si>
+    <t>24/11/2023'</t>
+  </si>
+  <si>
+    <t>filterStatus</t>
+  </si>
+  <si>
+    <t>UbahStatus</t>
+  </si>
+  <si>
+    <t>keterangan</t>
+  </si>
+  <si>
+    <t>dalamproses</t>
+  </si>
+  <si>
+    <t>diizinkan</t>
+  </si>
+  <si>
+    <t>Di Izinkan</t>
+  </si>
+  <si>
+    <t>perbaikan</t>
   </si>
   <si>
     <t>noSurat</t>
   </si>
   <si>
+    <t>tanggalSurat</t>
+  </si>
+  <si>
+    <t>tanggalMulai</t>
+  </si>
+  <si>
     <t>lamaPengasingan</t>
   </si>
   <si>
-    <t>tanggalMulai</t>
-  </si>
-  <si>
-    <t>tanggalKembali</t>
-  </si>
-  <si>
-    <t>jhoni</t>
-  </si>
-  <si>
-    <t>Srt</t>
-  </si>
-  <si>
-    <t>19/11/2022'</t>
-  </si>
-  <si>
-    <t>21/11/2022'</t>
-  </si>
-  <si>
-    <t>Baca baris</t>
-  </si>
-  <si>
-    <t>DAISY BINTI DAISYO</t>
-  </si>
-  <si>
-    <t>Narkotika</t>
-  </si>
-  <si>
-    <t>tanggalSurat</t>
-  </si>
-  <si>
     <t>alasan</t>
   </si>
   <si>
     <t>YONO BANCEUY BINTI eko cah cah ge</t>
-  </si>
-  <si>
-    <t>srt001/01</t>
-  </si>
-  <si>
-    <t>24/11/2022'</t>
-  </si>
-  <si>
-    <t>berantem</t>
-  </si>
-  <si>
-    <t>MITASUK BINTI -</t>
-  </si>
-  <si>
-    <t>srt001/02</t>
-  </si>
-  <si>
-    <t>ZIDAN BIN MORENA</t>
-  </si>
-  <si>
-    <t>srt001/03</t>
-  </si>
-  <si>
-    <t>filterStatus</t>
-  </si>
-  <si>
-    <t>UbahStatus</t>
-  </si>
-  <si>
-    <t>keterangan</t>
-  </si>
-  <si>
-    <t>dalamproses</t>
-  </si>
-  <si>
-    <t>diizinkan</t>
-  </si>
-  <si>
-    <t>Di Izinkan</t>
-  </si>
-  <si>
-    <t>perbaikan</t>
   </si>
   <si>
     <t>srt001/01/EDT</t>
@@ -924,10 +966,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -975,48 +1017,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,11 +1032,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1051,6 +1070,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1058,39 +1085,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,8 +1101,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,31 +1216,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,7 +1258,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,25 +1324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,7 +1336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,13 +1348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,31 +1360,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,31 +1390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,15 +1729,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1707,6 +1740,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1728,35 +1785,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1772,121 +1814,121 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1895,19 +1937,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1917,7 +1959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1963,20 +2005,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2360,12 +2394,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="59" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="60" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="59" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="51" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="51" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="52" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="51" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
@@ -2380,13 +2414,13 @@
       <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
@@ -2397,13 +2431,13 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="68">
+      <c r="A2" s="60">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="57" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2427,7 +2461,7 @@
       <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="57" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="33" t="s">
@@ -2451,7 +2485,7 @@
       <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="57" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -2475,7 +2509,7 @@
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="57" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -2499,7 +2533,7 @@
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="57" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -2523,7 +2557,7 @@
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="57" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2547,7 +2581,7 @@
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="57" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -2571,7 +2605,7 @@
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="57" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -2595,13 +2629,13 @@
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="61" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2690,7 +2724,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="70"/>
+      <c r="D20" s="62"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2698,7 +2732,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="70"/>
+      <c r="D21" s="62"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2706,7 +2740,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="70"/>
+      <c r="D22" s="62"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2714,7 +2748,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="70"/>
+      <c r="D23" s="62"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2722,7 +2756,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="70"/>
+      <c r="D24" s="62"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2730,7 +2764,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="70"/>
+      <c r="D25" s="62"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2738,7 +2772,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="70"/>
+      <c r="D26" s="62"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2746,7 +2780,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="70"/>
+      <c r="D27" s="62"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2754,7 +2788,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="70"/>
+      <c r="D28" s="62"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -2940,103 +2974,189 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H4"/>
+  <dimension ref="B1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="3" max="3" width="22.65625" customWidth="1"/>
-    <col min="4" max="4" width="17.9609375" customWidth="1"/>
-    <col min="5" max="5" width="24.8671875" customWidth="1"/>
-    <col min="6" max="6" width="16.40625" customWidth="1"/>
-    <col min="7" max="7" width="16.53125" customWidth="1"/>
-    <col min="8" max="8" width="12.2421875" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.7578125" customWidth="1"/>
+    <col min="6" max="6" width="17.9609375" customWidth="1"/>
+    <col min="7" max="7" width="24.8671875" customWidth="1"/>
+    <col min="8" max="8" width="23.046875" customWidth="1"/>
+    <col min="9" max="9" width="21.09375" customWidth="1"/>
+    <col min="10" max="10" width="20.4375" customWidth="1"/>
+    <col min="11" max="11" width="17.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
-      <c r="C1" t="s">
+    <row r="1" spans="2:11">
+      <c r="B1" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="3:8">
       <c r="C2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
         <v>130</v>
       </c>
-      <c r="E2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>132</v>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B2:B4">
+      <formula1>"semua,noRegistrasi,nama,jenisKejahatan"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3063,13 +3183,13 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="3:6">
@@ -3077,13 +3197,13 @@
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="3:6">
@@ -3091,13 +3211,13 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3129,79 +3249,79 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="H1" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3231,19 +3351,19 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="H1" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="3:8">
@@ -3251,19 +3371,19 @@
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="3:8">
@@ -3271,19 +3391,19 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="3:8">
@@ -3291,19 +3411,19 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3336,40 +3456,40 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="J1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="K1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="L1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -3377,42 +3497,42 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3421,31 +3541,31 @@
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K3" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="L3" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3475,138 +3595,138 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="35" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="37" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F2" s="11">
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="37" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="37" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
       <c r="B5" s="38" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"status,blok,jumlahlantai,semua"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 F6 D2:D4 H2:H5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
@@ -3635,39 +3755,39 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="H1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="J1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="K1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
         <v>120</v>
@@ -3679,30 +3799,30 @@
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3711,30 +3831,30 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3743,27 +3863,27 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H4" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="K4" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
         <v>120</v>
@@ -3775,22 +3895,22 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="I5" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3825,36 +3945,36 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="31" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>85</v>
@@ -3869,21 +3989,21 @@
         <v>85</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="11" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>85</v>
@@ -3898,21 +4018,21 @@
         <v>85</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="11" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>85</v>
@@ -3927,21 +4047,21 @@
         <v>85</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:10">
       <c r="B5" s="11" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>85</v>
@@ -3956,16 +4076,16 @@
         <v>85</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3973,11 +4093,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"status,blok,jumlahlantai,semua"</formula1>
@@ -4011,39 +4131,39 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="31" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="11" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>120</v>
@@ -4055,30 +4175,30 @@
         <v>85</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -4087,30 +4207,30 @@
         <v>85</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="11" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -4119,27 +4239,27 @@
         <v>85</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="11" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>120</v>
@@ -4151,22 +4271,22 @@
         <v>85</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4215,53 +4335,53 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="11" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4270,13 +4390,13 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>49</v>
@@ -4285,10 +4405,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="J2" s="11">
         <v>10</v>
@@ -4300,7 +4420,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>49</v>
@@ -4309,7 +4429,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="Q2" s="11">
         <v>30</v>
@@ -4321,25 +4441,25 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="J3" s="11">
         <v>15</v>
@@ -4351,16 +4471,16 @@
         <v>15</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O3" s="11">
         <v>33</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="Q3" s="11">
         <v>14</v>
@@ -4372,25 +4492,25 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G4" s="32">
         <v>3</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J4" s="11">
         <v>14</v>
@@ -4402,16 +4522,16 @@
         <v>14</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="O4" s="11">
         <v>43</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="11">
         <v>23</v>
@@ -4423,25 +4543,25 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="G5" s="32">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="J5" s="11">
         <v>12</v>
@@ -4453,16 +4573,16 @@
         <v>12</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="O5" s="11">
         <v>23</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="11">
         <v>20</v>
@@ -4470,9 +4590,6 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
-      <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
@@ -4482,17 +4599,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
       <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
-      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
+      <formula1>"Baik,Rusak"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
       <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
@@ -4516,12 +4636,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="59" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="59" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="59" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="60" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="52" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="51" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
     <col min="9" max="9" width="29.5546875" customWidth="1"/>
@@ -4531,22 +4651,22 @@
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="54" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -4557,16 +4677,16 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="64">
+      <c r="A2" s="56">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="57" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -4590,10 +4710,10 @@
       <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="57" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="33" t="s">
@@ -4617,10 +4737,10 @@
       <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="57" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="33" t="s">
@@ -4644,10 +4764,10 @@
       <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="57" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -4671,10 +4791,10 @@
       <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="57" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="33" t="s">
@@ -4698,10 +4818,10 @@
       <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="57" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -4725,10 +4845,10 @@
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="57" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="33" t="s">
@@ -4752,10 +4872,10 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="57" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -4779,10 +4899,10 @@
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="57" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -4847,96 +4967,96 @@
   <sheetData>
     <row r="1" ht="14.75" spans="2:22">
       <c r="B1" s="4" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="6" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>49</v>
@@ -4945,10 +5065,10 @@
         <v>2</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="O2" s="8">
         <v>10</v>
@@ -4960,7 +5080,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>49</v>
@@ -4969,7 +5089,7 @@
         <v>30</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="V2" s="29">
         <v>30</v>
@@ -4977,43 +5097,43 @@
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="9" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="L3" s="10">
         <v>1</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="O3" s="10">
         <v>15</v>
@@ -5025,16 +5145,16 @@
         <v>15</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="T3" s="10">
         <v>33</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="V3" s="30">
         <v>14</v>
@@ -5042,43 +5162,43 @@
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="9" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="L4" s="10">
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="O4" s="10">
         <v>14</v>
@@ -5090,16 +5210,16 @@
         <v>14</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="T4" s="10">
         <v>43</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="V4" s="30">
         <v>23</v>
@@ -5107,43 +5227,43 @@
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="9" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>263</v>
-      </c>
       <c r="K5" s="10" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="L5" s="10">
         <v>2</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="O5" s="10">
         <v>12</v>
@@ -5155,16 +5275,16 @@
         <v>12</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="T5" s="10">
         <v>23</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="V5" s="30">
         <v>20</v>
@@ -5175,40 +5295,40 @@
         <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>263</v>
-      </c>
       <c r="K6" s="20" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="L6" s="20">
         <v>2</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="O6" s="20">
         <v>12</v>
@@ -5220,16 +5340,16 @@
         <v>15</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="T6" s="20">
         <v>23</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="V6" s="18">
         <v>20</v>
@@ -5237,35 +5357,35 @@
     </row>
   </sheetData>
   <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
       <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
       <formula1>"Baik,Rusak"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
-      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
-      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
       <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
+      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
-      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
       <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
-      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
       <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
@@ -5299,21 +5419,21 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -5325,15 +5445,15 @@
         <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5342,12 +5462,12 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5359,12 +5479,12 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5376,7 +5496,7 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -5387,7 +5507,7 @@
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5424,24 +5544,24 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -5455,10 +5575,10 @@
     </row>
     <row r="3" ht="15.6" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5469,7 +5589,7 @@
     </row>
     <row r="4" ht="15.6" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5483,7 +5603,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5666,28 +5786,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="50" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5835,15 +5955,15 @@
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="49" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5893,25 +6013,25 @@
       <c r="A1" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="39" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5919,94 +6039,94 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="44">
         <v>3434</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="11">
         <v>50120</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D4" s="11">
         <v>50120</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:8">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D5" s="13">
         <v>50120</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="17" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6032,8 +6152,8 @@
   <sheetPr/>
   <dimension ref="B1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
@@ -6223,61 +6343,101 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G2"/>
+  <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="12.6171875" customWidth="1"/>
+    <col min="2" max="2" width="15.8828125" customWidth="1"/>
     <col min="3" max="3" width="22.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.9296875" customWidth="1"/>
+    <col min="5" max="5" width="24.6015625" customWidth="1"/>
     <col min="6" max="6" width="16.9296875" customWidth="1"/>
-    <col min="7" max="7" width="15.3671875" customWidth="1"/>
+    <col min="7" max="7" width="24.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="11" t="s">
         <v>123</v>
       </c>
+      <c r="H2" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"NamaWBP,lamaPerasingan,noSurat,tanggalMulai,tanggalKembali,semua"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6305,7 +6465,7 @@
         <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
         <v>50</v>
@@ -6322,10 +6482,10 @@
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="7" activeTab="9"/>
+    <workbookView windowHeight="16760" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="311">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -445,24 +445,45 @@
     <t>alasanTambah</t>
   </si>
   <si>
+    <t>filterStatusVerifikasi</t>
+  </si>
+  <si>
+    <t>UbahStatusVerifikasi</t>
+  </si>
+  <si>
+    <t>keteranganVerifikasi</t>
+  </si>
+  <si>
+    <t>srt001/01</t>
+  </si>
+  <si>
+    <t>24/11/2022'</t>
+  </si>
+  <si>
+    <t>berantem</t>
+  </si>
+  <si>
+    <t>dalamproses</t>
+  </si>
+  <si>
+    <t>diizinkan</t>
+  </si>
+  <si>
+    <t>Di Izinkan</t>
+  </si>
+  <si>
+    <t>MITASUK BINTI -</t>
+  </si>
+  <si>
+    <t>srt001/02</t>
+  </si>
+  <si>
+    <t>perbaikan</t>
+  </si>
+  <si>
     <t>ZIDAN BIN MORENA</t>
   </si>
   <si>
-    <t>srt001/01</t>
-  </si>
-  <si>
-    <t>24/11/2022'</t>
-  </si>
-  <si>
-    <t>berantem</t>
-  </si>
-  <si>
-    <t>MITASUK BINTI -</t>
-  </si>
-  <si>
-    <t>srt001/02</t>
-  </si>
-  <si>
     <t>srt001/03</t>
   </si>
   <si>
@@ -479,18 +500,6 @@
   </si>
   <si>
     <t>keterangan</t>
-  </si>
-  <si>
-    <t>dalamproses</t>
-  </si>
-  <si>
-    <t>diizinkan</t>
-  </si>
-  <si>
-    <t>Di Izinkan</t>
-  </si>
-  <si>
-    <t>perbaikan</t>
   </si>
   <si>
     <t>noSurat</t>
@@ -1198,6 +1207,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1336,12 +1351,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1823,7 +1832,7 @@
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1838,7 +1847,7 @@
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1847,58 +1856,58 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1907,10 +1916,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1925,7 +1934,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1946,10 +1955,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1959,7 +1968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2005,18 +2014,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2394,12 +2405,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="51" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="52" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="51" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="53" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
@@ -2414,13 +2425,13 @@
       <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
@@ -2431,13 +2442,13 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="60">
+      <c r="A2" s="62">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="59" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2461,7 +2472,7 @@
       <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="33" t="s">
@@ -2485,7 +2496,7 @@
       <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -2509,7 +2520,7 @@
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -2533,7 +2544,7 @@
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="59" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -2557,7 +2568,7 @@
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="59" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2581,7 +2592,7 @@
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="59" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -2605,7 +2616,7 @@
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -2629,13 +2640,13 @@
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2724,7 +2735,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="62"/>
+      <c r="D20" s="64"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2732,7 +2743,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="62"/>
+      <c r="D21" s="64"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2740,7 +2751,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="62"/>
+      <c r="D22" s="64"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2748,7 +2759,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="62"/>
+      <c r="D23" s="64"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2756,7 +2767,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="62"/>
+      <c r="D24" s="64"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2764,7 +2775,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="62"/>
+      <c r="D25" s="64"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2772,7 +2783,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="62"/>
+      <c r="D26" s="64"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2780,7 +2791,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="62"/>
+      <c r="D27" s="64"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2788,7 +2799,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="62"/>
+      <c r="D28" s="64"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -2974,10 +2985,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K5"/>
+  <dimension ref="B1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -2990,11 +3001,15 @@
     <col min="7" max="7" width="24.8671875" customWidth="1"/>
     <col min="8" max="8" width="23.046875" customWidth="1"/>
     <col min="9" max="9" width="21.09375" customWidth="1"/>
-    <col min="10" max="10" width="20.4375" customWidth="1"/>
+    <col min="10" max="10" width="26.0390625" customWidth="1"/>
     <col min="11" max="11" width="17.703125" customWidth="1"/>
+    <col min="12" max="12" width="5.8515625" customWidth="1"/>
+    <col min="13" max="13" width="27.859375" customWidth="1"/>
+    <col min="14" max="14" width="19.921875" customWidth="1"/>
+    <col min="15" max="15" width="19.65625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:15">
       <c r="B1" s="34" t="s">
         <v>128</v>
       </c>
@@ -3025,13 +3040,22 @@
       <c r="K1" s="34" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="2:11">
+      <c r="M1" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="2:15">
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>136</v>
+      <c r="C2" s="41" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>85</v>
@@ -3043,27 +3067,36 @@
         <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
+        <v>141</v>
+      </c>
+      <c r="M2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
         <v>85</v>
@@ -3075,19 +3108,28 @@
         <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="M3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -3095,7 +3137,7 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
         <v>85</v>
@@ -3107,19 +3149,19 @@
         <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3136,23 +3178,26 @@
         <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5">
+      <formula1>"perbaikan,dalamproses"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B2:B4">
       <formula1>"semua,noRegistrasi,nama,jenisKejahatan"</formula1>
     </dataValidation>
@@ -3168,7 +3213,7 @@
   <dimension ref="C1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -3183,13 +3228,13 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="3:6">
@@ -3197,13 +3242,13 @@
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="3:6">
@@ -3211,13 +3256,13 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3249,79 +3294,79 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
         <v>140</v>
       </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3351,19 +3396,19 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="3:8">
@@ -3371,19 +3416,19 @@
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="3:8">
@@ -3391,19 +3436,19 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="3:8">
@@ -3411,19 +3456,19 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3459,37 +3504,37 @@
         <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -3497,42 +3542,42 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3541,31 +3586,31 @@
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" t="s">
         <v>182</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>183</v>
-      </c>
-      <c r="K3" t="s">
-        <v>184</v>
-      </c>
-      <c r="L3" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3595,126 +3640,126 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="35" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="37" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F2" s="11">
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="37" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="37" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
       <c r="B5" s="38" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3758,36 +3803,36 @@
         <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
         <v>120</v>
@@ -3799,30 +3844,30 @@
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3831,30 +3876,30 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" t="s">
         <v>220</v>
-      </c>
-      <c r="H3" t="s">
-        <v>215</v>
-      </c>
-      <c r="I3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3863,27 +3908,27 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
         <v>120</v>
@@ -3895,22 +3940,22 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3945,36 +3990,36 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>85</v>
@@ -3989,21 +4034,21 @@
         <v>85</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>85</v>
@@ -4018,21 +4063,21 @@
         <v>85</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>85</v>
@@ -4047,21 +4092,21 @@
         <v>85</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:10">
       <c r="B5" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>85</v>
@@ -4076,16 +4121,16 @@
         <v>85</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4134,36 +4179,36 @@
         <v>125</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>120</v>
@@ -4175,30 +4220,30 @@
         <v>85</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -4207,30 +4252,30 @@
         <v>85</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -4239,27 +4284,27 @@
         <v>85</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>120</v>
@@ -4271,22 +4316,22 @@
         <v>85</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4335,53 +4380,53 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4390,13 +4435,13 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>49</v>
@@ -4405,10 +4450,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J2" s="11">
         <v>10</v>
@@ -4420,7 +4465,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>49</v>
@@ -4429,7 +4474,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q2" s="11">
         <v>30</v>
@@ -4441,25 +4486,25 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J3" s="11">
         <v>15</v>
@@ -4471,16 +4516,16 @@
         <v>15</v>
       </c>
       <c r="M3" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="N3" s="31" t="s">
         <v>269</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>266</v>
       </c>
       <c r="O3" s="11">
         <v>33</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q3" s="11">
         <v>14</v>
@@ -4492,25 +4537,25 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G4" s="32">
         <v>3</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J4" s="11">
         <v>14</v>
@@ -4522,16 +4567,16 @@
         <v>14</v>
       </c>
       <c r="M4" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="N4" s="31" t="s">
         <v>276</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>273</v>
       </c>
       <c r="O4" s="11">
         <v>43</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="11">
         <v>23</v>
@@ -4543,25 +4588,25 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G5" s="32">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J5" s="11">
         <v>12</v>
@@ -4573,16 +4618,16 @@
         <v>12</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O5" s="11">
         <v>23</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="11">
         <v>20</v>
@@ -4636,12 +4681,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="51" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="51" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="52" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="53" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
     <col min="9" max="9" width="29.5546875" customWidth="1"/>
@@ -4651,22 +4696,22 @@
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="56" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -4677,16 +4722,16 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="56">
+      <c r="A2" s="58">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -4710,10 +4755,10 @@
       <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="59" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="33" t="s">
@@ -4737,10 +4782,10 @@
       <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="33" t="s">
@@ -4764,10 +4809,10 @@
       <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="59" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -4791,10 +4836,10 @@
       <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="33" t="s">
@@ -4818,10 +4863,10 @@
       <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -4845,10 +4890,10 @@
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="59" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="33" t="s">
@@ -4872,10 +4917,10 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="59" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -4899,10 +4944,10 @@
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -4970,93 +5015,93 @@
         <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>49</v>
@@ -5065,10 +5110,10 @@
         <v>2</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O2" s="8">
         <v>10</v>
@@ -5080,7 +5125,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>49</v>
@@ -5089,7 +5134,7 @@
         <v>30</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="V2" s="29">
         <v>30</v>
@@ -5097,43 +5142,43 @@
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L3" s="10">
         <v>1</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O3" s="10">
         <v>15</v>
@@ -5145,16 +5190,16 @@
         <v>15</v>
       </c>
       <c r="R3" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="T3" s="10">
         <v>33</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="V3" s="30">
         <v>14</v>
@@ -5162,43 +5207,43 @@
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L4" s="10">
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O4" s="10">
         <v>14</v>
@@ -5210,16 +5255,16 @@
         <v>14</v>
       </c>
       <c r="R4" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="T4" s="10">
         <v>43</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="V4" s="30">
         <v>23</v>
@@ -5227,43 +5272,43 @@
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L5" s="10">
         <v>2</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O5" s="10">
         <v>12</v>
@@ -5275,16 +5320,16 @@
         <v>12</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="T5" s="10">
         <v>23</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="V5" s="30">
         <v>20</v>
@@ -5295,40 +5340,40 @@
         <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L6" s="20">
         <v>2</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O6" s="20">
         <v>12</v>
@@ -5340,16 +5385,16 @@
         <v>15</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="T6" s="20">
         <v>23</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="V6" s="18">
         <v>20</v>
@@ -5419,21 +5464,21 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -5445,15 +5490,15 @@
         <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5462,12 +5507,12 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5479,12 +5524,12 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5496,7 +5541,7 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -5507,7 +5552,7 @@
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5544,24 +5589,24 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -5575,10 +5620,10 @@
     </row>
     <row r="3" ht="15.6" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5589,7 +5634,7 @@
     </row>
     <row r="4" ht="15.6" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5603,7 +5648,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5652,7 +5697,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5715,7 +5760,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5786,28 +5831,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="52" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5955,15 +6000,15 @@
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="51" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6010,7 +6055,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="35" t="s">
@@ -6045,7 +6090,7 @@
       <c r="C2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="46">
         <v>3434</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -6203,7 +6248,7 @@
       <c r="B2" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="11">
@@ -6218,7 +6263,7 @@
       <c r="G2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="44" t="s">
         <v>104</v>
       </c>
       <c r="I2" s="11"/>
@@ -6230,7 +6275,7 @@
       <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="44" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="11">
@@ -6245,7 +6290,7 @@
       <c r="G3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="44" t="s">
         <v>104</v>
       </c>
       <c r="I3" s="11"/>
@@ -6255,22 +6300,22 @@
       <c r="B4" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="44">
         <v>3460</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="44" t="s">
         <v>111</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="44" t="s">
         <v>104</v>
       </c>
       <c r="I4" s="11"/>
@@ -6280,22 +6325,22 @@
       <c r="B5" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="44">
         <v>123</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="44" t="s">
         <v>113</v>
       </c>
       <c r="I5" s="11"/>
@@ -6395,7 +6440,7 @@
       <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="43" t="s">
         <v>122</v>
       </c>
       <c r="G2" s="11" t="s">

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="312">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>24/11/2023'</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>filterStatus</t>
@@ -1968,7 +1971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2014,8 +2017,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2405,12 +2419,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="54" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="53" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="64" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="65" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="65" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="64" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
@@ -2425,13 +2439,13 @@
       <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="76" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
@@ -2442,13 +2456,13 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="62">
+      <c r="A2" s="73">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2472,7 +2486,7 @@
       <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="33" t="s">
@@ -2496,7 +2510,7 @@
       <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -2520,7 +2534,7 @@
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="70" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -2544,7 +2558,7 @@
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="70" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -2568,7 +2582,7 @@
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2592,7 +2606,7 @@
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -2616,7 +2630,7 @@
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="70" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -2640,13 +2654,13 @@
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="74" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2735,7 +2749,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="64"/>
+      <c r="D20" s="75"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2743,7 +2757,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="64"/>
+      <c r="D21" s="75"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2751,7 +2765,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="64"/>
+      <c r="D22" s="75"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2759,7 +2773,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="64"/>
+      <c r="D23" s="75"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2767,7 +2781,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="64"/>
+      <c r="D24" s="75"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2775,7 +2789,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="64"/>
+      <c r="D25" s="75"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2783,7 +2797,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="64"/>
+      <c r="D26" s="75"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2791,7 +2805,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="64"/>
+      <c r="D27" s="75"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2799,7 +2813,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="64"/>
+      <c r="D28" s="75"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -2985,13 +2999,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:O5"/>
+  <dimension ref="B1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="19.1328125" customWidth="1"/>
     <col min="3" max="3" width="31.375" customWidth="1"/>
@@ -3010,187 +3024,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="53" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="2:15">
-      <c r="B2" t="s">
+      <c r="B2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="45">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="45">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="49" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" t="s">
+      <c r="B3" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="45">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="45">
         <v>4</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="49" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" t="s">
+    <row r="4" spans="2:15">
+      <c r="B4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="45">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="45">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="49" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" t="s">
+      <c r="M4" s="43"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" ht="14.75" spans="2:15">
+      <c r="B5" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="47">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="47">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="50" t="s">
         <v>141</v>
+      </c>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="36" spans="11:11">
+      <c r="K36" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3228,13 +3254,13 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="3:6">
@@ -3294,24 +3320,24 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
         <v>139</v>
@@ -3396,19 +3422,19 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="3:8">
@@ -3416,7 +3442,7 @@
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
         <v>140</v>
@@ -3428,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="3:8">
@@ -3436,7 +3462,7 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
         <v>140</v>
@@ -3448,7 +3474,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="3:8">
@@ -3456,7 +3482,7 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
         <v>140</v>
@@ -3468,7 +3494,7 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3504,37 +3530,37 @@
         <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -3542,42 +3568,42 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3586,31 +3612,31 @@
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3640,126 +3666,126 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F2" s="11">
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
       <c r="B5" s="38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3803,36 +3829,36 @@
         <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
         <v>120</v>
@@ -3844,30 +3870,30 @@
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3876,30 +3902,30 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3908,27 +3934,27 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
         <v>120</v>
@@ -3940,22 +3966,22 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3990,36 +4016,36 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>85</v>
@@ -4034,21 +4060,21 @@
         <v>85</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>85</v>
@@ -4063,21 +4089,21 @@
         <v>85</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>85</v>
@@ -4092,21 +4118,21 @@
         <v>85</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:10">
       <c r="B5" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>85</v>
@@ -4121,16 +4147,16 @@
         <v>85</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4179,36 +4205,36 @@
         <v>125</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>120</v>
@@ -4220,30 +4246,30 @@
         <v>85</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -4252,30 +4278,30 @@
         <v>85</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -4284,27 +4310,27 @@
         <v>85</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>120</v>
@@ -4316,22 +4342,22 @@
         <v>85</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4380,53 +4406,53 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4435,13 +4461,13 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>49</v>
@@ -4450,10 +4476,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J2" s="11">
         <v>10</v>
@@ -4465,7 +4491,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>49</v>
@@ -4474,7 +4500,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q2" s="11">
         <v>30</v>
@@ -4486,25 +4512,25 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J3" s="11">
         <v>15</v>
@@ -4516,16 +4542,16 @@
         <v>15</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O3" s="11">
         <v>33</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q3" s="11">
         <v>14</v>
@@ -4537,25 +4563,25 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G4" s="32">
         <v>3</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J4" s="11">
         <v>14</v>
@@ -4567,16 +4593,16 @@
         <v>14</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O4" s="11">
         <v>43</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="11">
         <v>23</v>
@@ -4588,25 +4614,25 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G5" s="32">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J5" s="11">
         <v>12</v>
@@ -4618,16 +4644,16 @@
         <v>12</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O5" s="11">
         <v>23</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="11">
         <v>20</v>
@@ -4681,12 +4707,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="53" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="53" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="53" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="54" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="64" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="65" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="65" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="64" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
     <col min="9" max="9" width="29.5546875" customWidth="1"/>
@@ -4696,22 +4722,22 @@
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="67" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -4722,16 +4748,16 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="58">
+      <c r="A2" s="69">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="70" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -4755,10 +4781,10 @@
       <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="70" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="33" t="s">
@@ -4782,10 +4808,10 @@
       <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="70" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="33" t="s">
@@ -4809,10 +4835,10 @@
       <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="70" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -4836,10 +4862,10 @@
       <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="70" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="33" t="s">
@@ -4863,10 +4889,10 @@
       <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="70" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -4890,10 +4916,10 @@
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="70" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="33" t="s">
@@ -4917,10 +4943,10 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="70" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -4944,10 +4970,10 @@
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="70" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -5015,93 +5041,93 @@
         <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>49</v>
@@ -5110,10 +5136,10 @@
         <v>2</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O2" s="8">
         <v>10</v>
@@ -5125,7 +5151,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>49</v>
@@ -5134,7 +5160,7 @@
         <v>30</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="V2" s="29">
         <v>30</v>
@@ -5142,43 +5168,43 @@
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L3" s="10">
         <v>1</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O3" s="10">
         <v>15</v>
@@ -5190,16 +5216,16 @@
         <v>15</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T3" s="10">
         <v>33</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V3" s="30">
         <v>14</v>
@@ -5207,43 +5233,43 @@
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L4" s="10">
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O4" s="10">
         <v>14</v>
@@ -5255,16 +5281,16 @@
         <v>14</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="T4" s="10">
         <v>43</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="V4" s="30">
         <v>23</v>
@@ -5272,43 +5298,43 @@
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L5" s="10">
         <v>2</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O5" s="10">
         <v>12</v>
@@ -5320,16 +5346,16 @@
         <v>12</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="T5" s="10">
         <v>23</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V5" s="30">
         <v>20</v>
@@ -5340,40 +5366,40 @@
         <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>196</v>
-      </c>
       <c r="J6" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L6" s="20">
         <v>2</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O6" s="20">
         <v>12</v>
@@ -5385,16 +5411,16 @@
         <v>15</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="T6" s="20">
         <v>23</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V6" s="18">
         <v>20</v>
@@ -5464,21 +5490,21 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -5490,15 +5516,15 @@
         <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5507,12 +5533,12 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5524,12 +5550,12 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5541,7 +5567,7 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -5552,7 +5578,7 @@
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5589,24 +5615,24 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -5620,10 +5646,10 @@
     </row>
     <row r="3" ht="15.6" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5634,7 +5660,7 @@
     </row>
     <row r="4" ht="15.6" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5648,7 +5674,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5697,7 +5723,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5760,7 +5786,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5831,28 +5857,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6000,15 +6026,15 @@
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="60" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="62" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6055,7 +6081,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="35" t="s">
@@ -6090,7 +6116,7 @@
       <c r="C2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="57">
         <v>3434</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -6248,7 +6274,7 @@
       <c r="B2" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="55" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="11">
@@ -6263,7 +6289,7 @@
       <c r="G2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="55" t="s">
         <v>104</v>
       </c>
       <c r="I2" s="11"/>
@@ -6275,7 +6301,7 @@
       <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="55" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="11">
@@ -6290,7 +6316,7 @@
       <c r="G3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="55" t="s">
         <v>104</v>
       </c>
       <c r="I3" s="11"/>
@@ -6300,22 +6326,22 @@
       <c r="B4" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="55">
         <v>3460</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="55" t="s">
         <v>111</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="55" t="s">
         <v>104</v>
       </c>
       <c r="I4" s="11"/>
@@ -6325,22 +6351,22 @@
       <c r="B5" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="55">
         <v>123</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="55" t="s">
         <v>113</v>
       </c>
       <c r="I5" s="11"/>
@@ -6440,7 +6466,7 @@
       <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="54" t="s">
         <v>122</v>
       </c>
       <c r="G2" s="11" t="s">

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="8" activeTab="9"/>
+    <workbookView windowWidth="30140" windowHeight="16760" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -978,10 +978,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1021,9 +1021,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,13 +1031,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,7 +1045,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,18 +1058,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1098,6 +1083,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -1105,7 +1105,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1113,11 +1119,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1130,19 +1135,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1151,15 +1158,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,25 +1234,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,49 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,43 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,13 +1324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,19 +1342,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1737,6 +1737,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1771,15 +1789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1797,6 +1806,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1805,173 +1823,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2017,16 +2017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2035,7 +2026,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2419,12 +2409,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="64" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="65" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="65" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="54" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
@@ -2439,13 +2429,13 @@
       <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="66" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
@@ -2456,13 +2446,13 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="73">
+      <c r="A2" s="63">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2486,7 +2476,7 @@
       <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="60" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="33" t="s">
@@ -2510,7 +2500,7 @@
       <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -2534,7 +2524,7 @@
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -2558,7 +2548,7 @@
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="60" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -2582,7 +2572,7 @@
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2606,7 +2596,7 @@
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="60" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -2630,7 +2620,7 @@
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -2654,13 +2644,13 @@
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2749,7 +2739,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="75"/>
+      <c r="D20" s="65"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2757,7 +2747,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="75"/>
+      <c r="D21" s="65"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2765,7 +2755,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="75"/>
+      <c r="D22" s="65"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2773,7 +2763,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="75"/>
+      <c r="D23" s="65"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2781,7 +2771,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="75"/>
+      <c r="D24" s="65"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2789,7 +2779,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="75"/>
+      <c r="D25" s="65"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2797,7 +2787,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="75"/>
+      <c r="D26" s="65"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2805,7 +2795,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="75"/>
+      <c r="D27" s="65"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2813,7 +2803,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="75"/>
+      <c r="D28" s="65"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -3001,8 +2991,8 @@
   <sheetPr/>
   <dimension ref="B1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3024,195 +3014,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="44" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="2:15">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="45">
+      <c r="D2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="11">
         <v>2</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="11">
         <v>3</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="11">
         <v>2</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="11">
         <v>4</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="11">
         <v>5</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="49"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" ht="14.75" spans="2:15">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="13">
         <v>6</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="50"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="40"/>
     </row>
     <row r="36" spans="11:11">
       <c r="K36" t="s">
@@ -3790,14 +3780,14 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"status,blok,jumlahlantai,semua"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 F6 D2:D4 H2:H5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
@@ -4164,11 +4154,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"status,blok,jumlahlantai,semua"</formula1>
@@ -4661,29 +4651,29 @@
     </row>
   </sheetData>
   <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
+      <formula1>"Baik,Rusak"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
-      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
-      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
-      <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"1,2,3,4"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
+      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
       <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
@@ -4707,12 +4697,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="64" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="64" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="65" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="65" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="54" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="54" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
     <col min="9" max="9" width="29.5546875" customWidth="1"/>
@@ -4722,22 +4712,22 @@
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="57" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -4748,16 +4738,16 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="69">
+      <c r="A2" s="59">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="60" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -4781,10 +4771,10 @@
       <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="60" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="33" t="s">
@@ -4808,10 +4798,10 @@
       <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="60" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="33" t="s">
@@ -4835,10 +4825,10 @@
       <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="60" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -4862,10 +4852,10 @@
       <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="60" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="33" t="s">
@@ -4889,10 +4879,10 @@
       <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -4916,10 +4906,10 @@
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="60" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="33" t="s">
@@ -4943,10 +4933,10 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="60" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -4970,10 +4960,10 @@
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="60" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -5428,38 +5418,38 @@
     </row>
   </sheetData>
   <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
       <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
-      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
+      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
-      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
+      <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
       <formula1>"Baik,Rusak"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
-      <formula1>"1,2,3,4"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
-      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
-      <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
-      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5723,7 +5713,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5786,7 +5776,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5857,28 +5847,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="53" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6026,15 +6016,15 @@
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="50" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="52" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6081,7 +6071,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="35" t="s">
@@ -6116,7 +6106,7 @@
       <c r="C2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="41">
         <v>3434</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -6274,7 +6264,7 @@
       <c r="B2" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="46" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="11">
@@ -6289,7 +6279,7 @@
       <c r="G2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="46" t="s">
         <v>104</v>
       </c>
       <c r="I2" s="11"/>
@@ -6301,7 +6291,7 @@
       <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="46" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="11">
@@ -6316,7 +6306,7 @@
       <c r="G3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="46" t="s">
         <v>104</v>
       </c>
       <c r="I3" s="11"/>
@@ -6326,22 +6316,22 @@
       <c r="B4" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="46">
         <v>3460</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="46" t="s">
         <v>111</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="46" t="s">
         <v>104</v>
       </c>
       <c r="I4" s="11"/>
@@ -6351,22 +6341,22 @@
       <c r="B5" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="46">
         <v>123</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="46" t="s">
         <v>113</v>
       </c>
       <c r="I5" s="11"/>
@@ -6466,7 +6456,7 @@
       <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="45" t="s">
         <v>122</v>
       </c>
       <c r="G2" s="11" t="s">

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30140" windowHeight="16760" firstSheet="8" activeTab="9"/>
+    <workbookView windowWidth="30140" windowHeight="16760" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="317">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -521,6 +521,21 @@
   </si>
   <si>
     <t>YONO BANCEUY BINTI eko cah cah ge</t>
+  </si>
+  <si>
+    <t>noSuratEdit</t>
+  </si>
+  <si>
+    <t>tanggalSuratEdit</t>
+  </si>
+  <si>
+    <t>tanggalMulaiEdit</t>
+  </si>
+  <si>
+    <t>lamaPengasinganEdit</t>
+  </si>
+  <si>
+    <t>alasanEdit</t>
   </si>
   <si>
     <t>srt001/01/EDT</t>
@@ -2991,7 +3006,7 @@
   <sheetPr/>
   <dimension ref="B1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3394,97 +3409,88 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H4"/>
+  <dimension ref="B1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
+    <col min="2" max="2" width="22.78125" customWidth="1"/>
     <col min="3" max="3" width="38.015625" customWidth="1"/>
     <col min="4" max="4" width="29.9453125" customWidth="1"/>
+    <col min="5" max="5" width="16.40625" customWidth="1"/>
+    <col min="6" max="6" width="11.71875" customWidth="1"/>
     <col min="8" max="8" width="56.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="3:8">
+    <row r="1" spans="2:6">
+      <c r="B1" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" t="s">
         <v>140</v>
       </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
       <c r="F2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
         <v>140</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
       <c r="D3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" t="s">
         <v>140</v>
       </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
       <c r="F3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
         <v>140</v>
       </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
       <c r="D4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" t="s">
         <v>140</v>
       </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
       <c r="F4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3520,34 +3526,34 @@
         <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M1" t="s">
         <v>155</v>
@@ -3558,42 +3564,42 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3602,31 +3608,31 @@
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L3" t="s">
         <v>188</v>
       </c>
-      <c r="L3" t="s">
-        <v>183</v>
-      </c>
       <c r="M3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3656,25 +3662,25 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="35" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I1" s="39" t="s">
         <v>155</v>
@@ -3682,100 +3688,100 @@
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="37" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F2" s="11">
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="37" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="37" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
       <c r="B5" s="38" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3819,36 +3825,36 @@
         <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
         <v>120</v>
@@ -3860,30 +3866,30 @@
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3892,30 +3898,30 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
         <v>224</v>
       </c>
-      <c r="H3" t="s">
-        <v>219</v>
-      </c>
       <c r="I3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="J3" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K3" t="s">
         <v>226</v>
-      </c>
-      <c r="K3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3924,27 +3930,27 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
         <v>120</v>
@@ -3956,22 +3962,22 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G5" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4006,36 +4012,36 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="31" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>85</v>
@@ -4050,21 +4056,21 @@
         <v>85</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>85</v>
@@ -4079,21 +4085,21 @@
         <v>85</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>85</v>
@@ -4108,21 +4114,21 @@
         <v>85</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:10">
       <c r="B5" s="11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>85</v>
@@ -4137,16 +4143,16 @@
         <v>85</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4195,36 +4201,36 @@
         <v>125</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>237</v>
-      </c>
       <c r="G1" s="31" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>120</v>
@@ -4236,30 +4242,30 @@
         <v>85</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -4268,30 +4274,30 @@
         <v>85</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>219</v>
-      </c>
       <c r="I3" s="11" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -4300,27 +4306,27 @@
         <v>85</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>120</v>
@@ -4332,22 +4338,22 @@
         <v>85</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4396,53 +4402,53 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4451,13 +4457,13 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>49</v>
@@ -4466,10 +4472,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J2" s="11">
         <v>10</v>
@@ -4481,7 +4487,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>49</v>
@@ -4490,7 +4496,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q2" s="11">
         <v>30</v>
@@ -4502,25 +4508,25 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J3" s="11">
         <v>15</v>
@@ -4532,16 +4538,16 @@
         <v>15</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O3" s="11">
         <v>33</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q3" s="11">
         <v>14</v>
@@ -4553,25 +4559,25 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G4" s="32">
         <v>3</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J4" s="11">
         <v>14</v>
@@ -4583,16 +4589,16 @@
         <v>14</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O4" s="11">
         <v>43</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="11">
         <v>23</v>
@@ -4604,25 +4610,25 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G5" s="32">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J5" s="11">
         <v>12</v>
@@ -4634,16 +4640,16 @@
         <v>12</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O5" s="11">
         <v>23</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="11">
         <v>20</v>
@@ -5031,93 +5037,93 @@
         <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>49</v>
@@ -5126,10 +5132,10 @@
         <v>2</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O2" s="8">
         <v>10</v>
@@ -5141,7 +5147,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>49</v>
@@ -5150,7 +5156,7 @@
         <v>30</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="V2" s="29">
         <v>30</v>
@@ -5158,43 +5164,43 @@
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L3" s="10">
         <v>1</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O3" s="10">
         <v>15</v>
@@ -5206,16 +5212,16 @@
         <v>15</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="T3" s="10">
         <v>33</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="V3" s="30">
         <v>14</v>
@@ -5223,43 +5229,43 @@
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L4" s="10">
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="O4" s="10">
         <v>14</v>
@@ -5271,16 +5277,16 @@
         <v>14</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="T4" s="10">
         <v>43</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="V4" s="30">
         <v>23</v>
@@ -5288,43 +5294,43 @@
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L5" s="10">
         <v>2</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O5" s="10">
         <v>12</v>
@@ -5336,16 +5342,16 @@
         <v>12</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="T5" s="10">
         <v>23</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="V5" s="30">
         <v>20</v>
@@ -5356,40 +5362,40 @@
         <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L6" s="20">
         <v>2</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O6" s="20">
         <v>12</v>
@@ -5401,16 +5407,16 @@
         <v>15</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="T6" s="20">
         <v>23</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="V6" s="18">
         <v>20</v>
@@ -5480,21 +5486,21 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -5506,15 +5512,15 @@
         <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5523,12 +5529,12 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5540,12 +5546,12 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5557,7 +5563,7 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -5568,7 +5574,7 @@
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5605,24 +5611,24 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -5636,10 +5642,10 @@
     </row>
     <row r="3" ht="15.6" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5650,7 +5656,7 @@
     </row>
     <row r="4" ht="15.6" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5664,7 +5670,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30140" windowHeight="16760" firstSheet="10" activeTab="12"/>
+    <workbookView windowWidth="30140" windowHeight="16760" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="327">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -802,31 +802,157 @@
     <t>KeteranganEdit</t>
   </si>
   <si>
-    <t>Nomor</t>
-  </si>
-  <si>
-    <t>namablok</t>
-  </si>
-  <si>
-    <t>jeniskelamin</t>
-  </si>
-  <si>
-    <t>jumlahLantai</t>
-  </si>
-  <si>
-    <t>formatPenomoranKamar</t>
-  </si>
-  <si>
-    <t>kelUsia</t>
-  </si>
-  <si>
-    <t>jumlahKamarPerlantai</t>
-  </si>
-  <si>
-    <t>noKamarAwal</t>
-  </si>
-  <si>
-    <t>noKamarAkhir</t>
+    <t>statusKapasitasFormIndex</t>
+  </si>
+  <si>
+    <t>namablokTambah</t>
+  </si>
+  <si>
+    <t>tipeblokTambah</t>
+  </si>
+  <si>
+    <t>jeniskelaminTambah</t>
+  </si>
+  <si>
+    <t>jenisKejahatanTambah</t>
+  </si>
+  <si>
+    <t>jumlahLantaiTambah</t>
+  </si>
+  <si>
+    <t>formatPenomoranKamarTambah</t>
+  </si>
+  <si>
+    <t>kelUsiaTambah</t>
+  </si>
+  <si>
+    <t>jumlahKamarPerlantaiTambah</t>
+  </si>
+  <si>
+    <t>noKamarAwalTambah</t>
+  </si>
+  <si>
+    <t>noKamarAkhirTambah</t>
+  </si>
+  <si>
+    <t>nomorKamarTambah</t>
+  </si>
+  <si>
+    <t>kelompokJenisKejahatanTambah</t>
+  </si>
+  <si>
+    <t>kapasitasInputTambah</t>
+  </si>
+  <si>
+    <t>kondisiRuanganTambah</t>
+  </si>
+  <si>
+    <t>lamaHuni</t>
+  </si>
+  <si>
+    <t>SearchnamaFilter</t>
+  </si>
+  <si>
+    <t>Blok Naling B</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>Angka 8 mulai kiri atas</t>
+  </si>
+  <si>
+    <t>Anak-anak</t>
+  </si>
+  <si>
+    <t>B-01</t>
+  </si>
+  <si>
+    <t>Baik</t>
+  </si>
+  <si>
+    <t>terisi</t>
+  </si>
+  <si>
+    <t>Kriminal</t>
+  </si>
+  <si>
+    <t>Depan Ke Belakang 1 arah</t>
+  </si>
+  <si>
+    <t>Dewasa</t>
+  </si>
+  <si>
+    <t>C-01</t>
+  </si>
+  <si>
+    <t>Rusak</t>
+  </si>
+  <si>
+    <t>penuh</t>
+  </si>
+  <si>
+    <t>Blok D</t>
+  </si>
+  <si>
+    <t>Isolasi</t>
+  </si>
+  <si>
+    <t>Teroris</t>
+  </si>
+  <si>
+    <t>Depan Ke Belakang 2 arah</t>
+  </si>
+  <si>
+    <t>Lansia</t>
+  </si>
+  <si>
+    <t>D-02</t>
+  </si>
+  <si>
+    <t>overcapacity</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>Korupsi Teroris</t>
+  </si>
+  <si>
+    <t>Kanan Kiri 1 arah</t>
+  </si>
+  <si>
+    <t>E-02</t>
+  </si>
+  <si>
+    <t>EditNamaBlok</t>
+  </si>
+  <si>
+    <t>EditTipeBlok</t>
+  </si>
+  <si>
+    <t>Editjeniskelamin</t>
+  </si>
+  <si>
+    <t>EditjenisKejahatan</t>
+  </si>
+  <si>
+    <t>EditjumlahLantai</t>
+  </si>
+  <si>
+    <t>EditformatPenomoranKamar</t>
+  </si>
+  <si>
+    <t>EditkelUsia</t>
+  </si>
+  <si>
+    <t>EditjumlahKamarPerlantai</t>
+  </si>
+  <si>
+    <t>EditnoKamarAwal</t>
+  </si>
+  <si>
+    <t>EditnoKamarAkhir</t>
   </si>
   <si>
     <t>nomorKamar</t>
@@ -839,102 +965,6 @@
   </si>
   <si>
     <t>kondisiRuangan</t>
-  </si>
-  <si>
-    <t>lamaHuni</t>
-  </si>
-  <si>
-    <t>Blok Naling B</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>Angka 8 mulai kiri atas</t>
-  </si>
-  <si>
-    <t>Anak-anak</t>
-  </si>
-  <si>
-    <t>B-01</t>
-  </si>
-  <si>
-    <t>Baik</t>
-  </si>
-  <si>
-    <t>Kriminal</t>
-  </si>
-  <si>
-    <t>Depan Ke Belakang 1 arah</t>
-  </si>
-  <si>
-    <t>Dewasa</t>
-  </si>
-  <si>
-    <t>C-01</t>
-  </si>
-  <si>
-    <t>Rusak</t>
-  </si>
-  <si>
-    <t>Blok D</t>
-  </si>
-  <si>
-    <t>Isolasi</t>
-  </si>
-  <si>
-    <t>Teroris</t>
-  </si>
-  <si>
-    <t>Depan Ke Belakang 2 arah</t>
-  </si>
-  <si>
-    <t>Lansia</t>
-  </si>
-  <si>
-    <t>D-02</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
-    <t>Korupsi Teroris</t>
-  </si>
-  <si>
-    <t>Kanan Kiri 1 arah</t>
-  </si>
-  <si>
-    <t>E-02</t>
-  </si>
-  <si>
-    <t>EditNamaBlok</t>
-  </si>
-  <si>
-    <t>EditTipeBlok</t>
-  </si>
-  <si>
-    <t>Editjeniskelamin</t>
-  </si>
-  <si>
-    <t>EditjenisKejahatan</t>
-  </si>
-  <si>
-    <t>EditjumlahLantai</t>
-  </si>
-  <si>
-    <t>EditformatPenomoranKamar</t>
-  </si>
-  <si>
-    <t>EditkelUsia</t>
-  </si>
-  <si>
-    <t>EditjumlahKamarPerlantai</t>
-  </si>
-  <si>
-    <t>EditnoKamarAwal</t>
-  </si>
-  <si>
-    <t>EditnoKamarAkhir</t>
   </si>
   <si>
     <t xml:space="preserve"> edt</t>
@@ -994,9 +1024,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1036,6 +1066,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1044,8 +1082,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,20 +1127,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1081,32 +1135,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,14 +1145,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,9 +1172,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,9 +1186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,15 +1196,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,7 +1291,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,13 +1327,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,7 +1357,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,25 +1405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,25 +1429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,55 +1447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1737,6 +1767,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1752,24 +1791,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1804,21 +1825,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1838,124 +1844,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1964,25 +1994,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3411,8 +3441,8 @@
   <sheetPr/>
   <dimension ref="B1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3426,70 +3456,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="39" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" t="s">
+      <c r="B2" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="11">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" t="s">
+      <c r="B3" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+    <row r="4" ht="14.75" spans="2:6">
+      <c r="B4" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="13">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="40" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3789,11 +3819,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"status,blok,jumlahlantai,semua"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 F6 D2:D4 H2:H5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
@@ -4376,14 +4406,16 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
+    <col min="1" max="1" width="17.4453125" customWidth="1"/>
+    <col min="2" max="2" width="21.8671875" customWidth="1"/>
     <col min="3" max="3" width="15.4921875" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
@@ -4392,78 +4424,87 @@
     <col min="8" max="8" width="37.890625" customWidth="1"/>
     <col min="9" max="9" width="15.4921875" customWidth="1"/>
     <col min="10" max="10" width="23.4375" customWidth="1"/>
-    <col min="11" max="11" width="13.9296875" customWidth="1"/>
-    <col min="12" max="12" width="14.9765625" customWidth="1"/>
-    <col min="13" max="13" width="12.4921875" customWidth="1"/>
-    <col min="14" max="14" width="14.84375" customWidth="1"/>
+    <col min="11" max="11" width="21.484375" customWidth="1"/>
+    <col min="12" max="12" width="21.0859375" customWidth="1"/>
+    <col min="13" max="13" width="18.1015625" customWidth="1"/>
+    <col min="14" max="14" width="28.2578125" customWidth="1"/>
     <col min="15" max="15" width="16.40625" customWidth="1"/>
     <col min="16" max="16" width="18.2265625" customWidth="1"/>
+    <col min="17" max="17" width="25.65625" customWidth="1"/>
+    <col min="18" max="18" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
         <v>256</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="R1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="C2" s="11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>202</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>49</v>
@@ -4472,10 +4513,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J2" s="11">
         <v>10</v>
@@ -4487,7 +4528,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>49</v>
@@ -4496,17 +4537,19 @@
         <v>30</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q2" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>278</v>
+      </c>
       <c r="C3" s="11" t="s">
         <v>207</v>
       </c>
@@ -4514,19 +4557,19 @@
         <v>211</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="J3" s="11">
         <v>15</v>
@@ -4538,46 +4581,48 @@
         <v>15</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O3" s="11">
         <v>33</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q3" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="C4" s="11" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G4" s="32">
         <v>3</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="J4" s="11">
         <v>14</v>
@@ -4589,26 +4634,28 @@
         <v>14</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O4" s="11">
         <v>43</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>291</v>
+      </c>
       <c r="C5" s="11" t="s">
         <v>223</v>
       </c>
@@ -4616,19 +4663,19 @@
         <v>202</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G5" s="32">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J5" s="11">
         <v>12</v>
@@ -4640,49 +4687,52 @@
         <v>12</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O5" s="11">
         <v>23</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="11">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
-      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
+      <formula1>"Baik,Rusak"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"1,2,3,4"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
-      <formula1>"Baik,Rusak"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
+      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
-      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
-      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
-      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"semua,kosong,terisi,penuh,overcapacity"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5052,49 +5102,49 @@
         <v>58</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="2:22">
@@ -5117,13 +5167,13 @@
         <v>203</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>209</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>49</v>
@@ -5132,10 +5182,10 @@
         <v>2</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O2" s="8">
         <v>10</v>
@@ -5147,7 +5197,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>49</v>
@@ -5156,7 +5206,7 @@
         <v>30</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="V2" s="29">
         <v>30</v>
@@ -5182,25 +5232,25 @@
         <v>203</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>211</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L3" s="10">
         <v>1</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O3" s="10">
         <v>15</v>
@@ -5212,16 +5262,16 @@
         <v>15</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="T3" s="10">
         <v>33</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="V3" s="30">
         <v>14</v>
@@ -5247,25 +5297,25 @@
         <v>203</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L4" s="10">
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="O4" s="10">
         <v>14</v>
@@ -5277,16 +5327,16 @@
         <v>14</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="T4" s="10">
         <v>43</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="V4" s="30">
         <v>23</v>
@@ -5312,25 +5362,25 @@
         <v>203</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>202</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L5" s="10">
         <v>2</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O5" s="10">
         <v>12</v>
@@ -5342,16 +5392,16 @@
         <v>12</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="T5" s="10">
         <v>23</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="V5" s="30">
         <v>20</v>
@@ -5377,25 +5427,25 @@
         <v>203</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>202</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L6" s="20">
         <v>2</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O6" s="20">
         <v>12</v>
@@ -5407,16 +5457,16 @@
         <v>15</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="T6" s="20">
         <v>23</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="V6" s="18">
         <v>20</v>
@@ -5424,11 +5474,20 @@
     </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
-      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+      <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
+      <formula1>"Baik,Rusak"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
       <formula1>"1,2,3,4"</formula1>
@@ -5436,26 +5495,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
-      <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
-      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
       <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
       <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
-      <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5486,21 +5536,21 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -5517,10 +5567,10 @@
     </row>
     <row r="3" ht="15.6" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5534,7 +5584,7 @@
     </row>
     <row r="4" ht="15.6" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5551,7 +5601,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5563,7 +5613,7 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -5611,24 +5661,24 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -5642,10 +5692,10 @@
     </row>
     <row r="3" ht="15.6" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5656,7 +5706,7 @@
     </row>
     <row r="4" ht="15.6" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5670,7 +5720,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30140" windowHeight="16760" firstSheet="18" activeTab="18"/>
+    <workbookView windowWidth="30140" windowHeight="16760" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="327">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -118,18 +118,21 @@
     <t>PengawalExternalEditUbah</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>SK/002/DIV</t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>EYONO BIN CAS</t>
+  </si>
+  <si>
     <t>Wildan Cahyono</t>
   </si>
   <si>
-    <t>SK/002/DIV</t>
-  </si>
-  <si>
-    <t>EDIT</t>
-  </si>
-  <si>
-    <t>EYONO BIN CAS</t>
-  </si>
-  <si>
     <t>SK/003/DIV</t>
   </si>
   <si>
@@ -292,9 +295,6 @@
     <t>14/11/2022'</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>nama lenkap</t>
   </si>
   <si>
@@ -334,10 +334,10 @@
     <t>KunjunganOnline</t>
   </si>
   <si>
+    <t>NamaAtauNiptambahPegPut</t>
+  </si>
+  <si>
     <t>Pegawai</t>
-  </si>
-  <si>
-    <t>Nabila</t>
   </si>
   <si>
     <t>Suri suryanto</t>
@@ -1023,10 +1023,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1075,14 +1075,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1091,7 +1113,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,30 +1127,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1144,29 +1143,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1180,15 +1174,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,9 +1188,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,7 +1279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,7 +1291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,37 +1309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,19 +1333,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,7 +1399,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,55 +1447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,15 +1767,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1791,6 +1782,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1825,26 +1825,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1862,151 +1842,171 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3066,13 +3066,13 @@
         <v>129</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>130</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>131</v>
@@ -3101,19 +3101,19 @@
     </row>
     <row r="2" ht="15.6" spans="2:15">
       <c r="B2" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="E2" s="11">
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>139</v>
@@ -3142,19 +3142,19 @@
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>145</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="E3" s="11">
         <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>146</v>
@@ -3183,19 +3183,19 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="E4" s="11">
         <v>2</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>149</v>
@@ -3222,13 +3222,13 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="E5" s="13">
         <v>2</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>150</v>
@@ -3286,7 +3286,7 @@
   <sheetData>
     <row r="1" spans="3:6">
       <c r="C1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>153</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>142</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>142</v>
@@ -3352,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="3:8">
       <c r="C1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>156</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>181</v>
@@ -3707,7 +3707,7 @@
         <v>198</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="36" t="s">
         <v>199</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>222</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>222</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>222</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>222</v>
@@ -4074,16 +4074,16 @@
         <v>242</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>201</v>
@@ -4103,16 +4103,16 @@
         <v>213</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>208</v>
@@ -4132,16 +4132,16 @@
         <v>246</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>201</v>
@@ -4161,16 +4161,16 @@
         <v>219</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>208</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>201</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>208</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>201</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>208</v>
@@ -4408,8 +4408,8 @@
   <sheetPr/>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -4436,7 +4436,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>255</v>
@@ -4492,10 +4492,10 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>272</v>
@@ -4507,7 +4507,7 @@
         <v>273</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="32">
         <v>2</v>
@@ -4531,7 +4531,7 @@
         <v>276</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" s="11">
         <v>30</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>278</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>284</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>291</v>
@@ -4704,17 +4704,17 @@
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
-      <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
-      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
+      <formula1>"Baik,Rusak"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"1,2,3,4"</formula1>
@@ -4722,14 +4722,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
       <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
-      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
       <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"semua,kosong,terisi,penuh,overcapacity"</formula1>
@@ -4748,7 +4748,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4852,10 +4852,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>9</v>
@@ -4882,7 +4882,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="60" t="s">
         <v>16</v>
@@ -4906,10 +4906,10 @@
     <row r="6" spans="1:9">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>17</v>
@@ -4936,7 +4936,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>9</v>
@@ -4960,10 +4960,10 @@
     <row r="8" spans="1:9">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>18</v>
@@ -4990,7 +4990,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>16</v>
@@ -5014,10 +5014,10 @@
     <row r="10" spans="1:9">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>9</v>
@@ -5099,7 +5099,7 @@
         <v>198</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>296</v>
@@ -5176,7 +5176,7 @@
         <v>273</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" s="8">
         <v>2</v>
@@ -5200,7 +5200,7 @@
         <v>276</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T2" s="8">
         <v>30</v>
@@ -5217,7 +5217,7 @@
         <v>206</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>204</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="6" ht="14.75" spans="2:22">
       <c r="B6" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>212</v>
@@ -5476,9 +5476,6 @@
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
       <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
-      <formula1>"Baik,Rusak"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
@@ -5489,8 +5486,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
+      <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
       <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
       <formula1>"Laki-laki,Perempuan"</formula1>
@@ -5498,14 +5501,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
       <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
-      <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
-      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
+      <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5533,7 +5533,7 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>311</v>
@@ -5559,7 +5559,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>201</v>
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>204</v>
@@ -5593,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>208</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>318</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>215</v>
@@ -5687,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:5">
@@ -5701,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:5">
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -5729,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="4:5">
@@ -5737,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5773,13 +5773,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5787,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -5836,16 +5836,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5853,26 +5853,26 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5907,25 +5907,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5933,121 +5933,121 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" s="11">
         <v>50120</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="37"/>
       <c r="B3" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="11">
         <v>50120</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="37"/>
       <c r="B4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="11">
         <v>50120</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="37"/>
       <c r="B5" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="11">
         <v>50120</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="37"/>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="11">
         <v>50120</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
@@ -6058,22 +6058,22 @@
         <v>50120</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
       <c r="A12" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6089,7 +6089,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6128,28 +6128,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:8">
@@ -6157,48 +6157,48 @@
         <v>2</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="41">
         <v>3434</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11">
         <v>50120</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -6206,22 +6206,22 @@
         <v>86</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11">
         <v>50120</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:8">
@@ -6229,22 +6229,22 @@
         <v>88</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D5" s="13">
         <v>50120</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>89</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6267,10 +6267,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:J7"/>
+  <dimension ref="B1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
@@ -6285,9 +6285,10 @@
     <col min="8" max="8" width="24.2109375" customWidth="1"/>
     <col min="9" max="9" width="16.5390625" customWidth="1"/>
     <col min="10" max="10" width="21.21875" customWidth="1"/>
+    <col min="11" max="11" width="21.7421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:11">
       <c r="B1" s="35" t="s">
         <v>90</v>
       </c>
@@ -6315,13 +6316,16 @@
       <c r="J1" s="39" t="s">
         <v>98</v>
       </c>
+      <c r="K1" s="36" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" s="11">
         <v>9943238</v>
@@ -6345,10 +6349,10 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="11">
         <v>44324</v>
@@ -6370,7 +6374,7 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>109</v>
@@ -6395,7 +6399,7 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>109</v>
@@ -6404,7 +6408,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>112</v>
@@ -6478,7 +6482,7 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>114</v>
@@ -6501,7 +6505,7 @@
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>120</v>
@@ -6519,7 +6523,7 @@
         <v>123</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -6585,16 +6589,16 @@
         <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="3:6">
@@ -6608,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -13,7 +13,7 @@
     <sheet name="DaftarLaluLintas_CariIdentitas" sheetId="4" r:id="rId4"/>
     <sheet name="Portir_SearchDataIndex" sheetId="5" r:id="rId5"/>
     <sheet name="Fungsi_P2U_Index" sheetId="8" r:id="rId6"/>
-    <sheet name="Fungsi_P2U_Input" sheetId="9" r:id="rId7"/>
+    <sheet name="Fungsi_P2U_External_Input" sheetId="9" r:id="rId7"/>
     <sheet name="RegisterH_Index" sheetId="10" r:id="rId8"/>
     <sheet name="RegisterH_CariIdentitas" sheetId="11" r:id="rId9"/>
     <sheet name="RegisterH_Tambah" sheetId="12" r:id="rId10"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="334">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -70,7 +70,7 @@
     <t>17/12/2022'</t>
   </si>
   <si>
-    <t>29/11/2022 12:00:00'</t>
+    <t>26/01/2023 00:00:00'</t>
   </si>
   <si>
     <t>Robi</t>
@@ -85,15 +85,39 @@
     <t>Cuti Bersyarat</t>
   </si>
   <si>
+    <t>26/01/2023 00:00:01'</t>
+  </si>
+  <si>
+    <t>26/01/2023 00:00:02'</t>
+  </si>
+  <si>
     <t>Asimilasi</t>
   </si>
   <si>
+    <t>26/01/2023 00:00:03'</t>
+  </si>
+  <si>
     <t>Bebas dari Dakwaan</t>
   </si>
   <si>
+    <t>26/01/2023 00:00:04'</t>
+  </si>
+  <si>
+    <t>26/01/2023 00:00:05'</t>
+  </si>
+  <si>
     <t>Bebas dari Tuntutan</t>
   </si>
   <si>
+    <t>26/01/2023 00:00:06'</t>
+  </si>
+  <si>
+    <t>26/01/2023 00:00:07'</t>
+  </si>
+  <si>
+    <t>26/01/2023 00:00:08'</t>
+  </si>
+  <si>
     <t>NamaEditUbah</t>
   </si>
   <si>
@@ -182,9 +206,6 @@
   </si>
   <si>
     <t>nomorReg</t>
-  </si>
-  <si>
-    <t>WILLLD BINTI eko cah cah ge</t>
   </si>
   <si>
     <t>Korupsi</t>
@@ -1024,9 +1045,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1066,9 +1087,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,17 +1117,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1103,8 +1131,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1120,39 +1156,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,10 +1170,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1177,14 +1182,6 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1204,7 +1201,31 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,19 +1300,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,7 +1330,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,25 +1438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,103 +1462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,6 +1788,59 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1782,30 +1856,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1839,184 +1889,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2087,6 +2108,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2449,7 +2473,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2474,13 +2498,13 @@
       <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
@@ -2491,7 +2515,7 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="63">
+      <c r="A2" s="64">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2503,7 +2527,7 @@
       <c r="D2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="62" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -2527,8 +2551,8 @@
       <c r="D3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>11</v>
+      <c r="E3" s="62" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>14</v>
@@ -2551,8 +2575,8 @@
       <c r="D4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>11</v>
+      <c r="E4" s="62" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>8</v>
@@ -2570,13 +2594,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>11</v>
+      <c r="E5" s="62" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>8</v>
@@ -2594,13 +2618,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>11</v>
+      <c r="E6" s="62" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>8</v>
@@ -2623,8 +2647,8 @@
       <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>11</v>
+      <c r="E7" s="62" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>14</v>
@@ -2642,13 +2666,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>11</v>
+      <c r="E8" s="62" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>8</v>
@@ -2666,13 +2690,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>11</v>
+      <c r="E9" s="62" t="s">
+        <v>25</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>8</v>
@@ -2692,11 +2716,11 @@
       <c r="C10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="64" t="s">
-        <v>11</v>
+      <c r="E10" s="62" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>8</v>
@@ -2784,7 +2808,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="65"/>
+      <c r="D20" s="66"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2792,7 +2816,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="65"/>
+      <c r="D21" s="66"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2800,7 +2824,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2808,7 +2832,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="65"/>
+      <c r="D23" s="66"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2816,7 +2840,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="65"/>
+      <c r="D24" s="66"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2824,7 +2848,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="65"/>
+      <c r="D25" s="66"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2832,7 +2856,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="65"/>
+      <c r="D26" s="66"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2840,7 +2864,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="65"/>
+      <c r="D27" s="66"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2848,7 +2872,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="65"/>
+      <c r="D28" s="66"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -3060,157 +3084,157 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" s="35" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="2:15">
       <c r="B2" s="37" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11">
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J2" s="11">
         <v>3</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="37" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11">
         <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J3" s="11">
         <v>4</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M3" s="37" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="37" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E4" s="11">
         <v>2</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J4" s="11">
         <v>5</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M4" s="37"/>
       <c r="N4" s="11"/>
@@ -3218,32 +3242,32 @@
     </row>
     <row r="5" ht="14.75" spans="2:15">
       <c r="B5" s="38" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E5" s="13">
         <v>2</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="J5" s="13">
         <v>6</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M5" s="38"/>
       <c r="N5" s="13"/>
@@ -3251,7 +3275,7 @@
     </row>
     <row r="36" spans="11:11">
       <c r="K36" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3286,44 +3310,44 @@
   <sheetData>
     <row r="1" spans="3:6">
       <c r="C1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3352,82 +3376,82 @@
   <sheetData>
     <row r="1" spans="3:8">
       <c r="C1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3457,70 +3481,70 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="35" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="37" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E2" s="11">
         <v>3</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="37" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E3" s="11">
         <v>4</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" ht="14.75" spans="2:6">
       <c r="B4" s="38" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E4" s="13">
         <v>5</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3553,83 +3577,83 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3638,31 +3662,31 @@
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3692,126 +3716,126 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="35" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="37" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F2" s="11">
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="37" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="37" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
       <c r="B5" s="38" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3852,162 +3876,162 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" t="s">
         <v>233</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="K4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I5" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4042,147 +4066,147 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="31" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E1" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>199</v>
-      </c>
       <c r="J1" s="31" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="11" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="11" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:10">
       <c r="B5" s="11" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4228,162 +4252,162 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="31" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E1" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>242</v>
-      </c>
       <c r="G1" s="31" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4436,87 +4460,87 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="R1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G2" s="32">
         <v>2</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="J2" s="11">
         <v>10</v>
@@ -4528,16 +4552,16 @@
         <v>10</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O2" s="11">
         <v>30</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q2" s="11">
         <v>30</v>
@@ -4545,31 +4569,31 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="J3" s="11">
         <v>15</v>
@@ -4581,16 +4605,16 @@
         <v>15</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="O3" s="11">
         <v>33</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q3" s="11">
         <v>14</v>
@@ -4598,31 +4622,31 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G4" s="32">
         <v>3</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="J4" s="11">
         <v>14</v>
@@ -4634,16 +4658,16 @@
         <v>14</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="O4" s="11">
         <v>43</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="11">
         <v>23</v>
@@ -4651,31 +4675,31 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G5" s="32">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="J5" s="11">
         <v>12</v>
@@ -4687,16 +4711,16 @@
         <v>12</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="O5" s="11">
         <v>23</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="11">
         <v>20</v>
@@ -4704,35 +4728,35 @@
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
-      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
+      <formula1>"Baik,Rusak"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
-      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
-      <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
       <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
-      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"semua,kosong,terisi,penuh,overcapacity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4748,7 +4772,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4769,28 +4793,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
@@ -4798,10 +4822,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>9</v>
@@ -4809,11 +4833,11 @@
       <c r="E2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="62" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>12</v>
@@ -4825,10 +4849,10 @@
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D3" s="60" t="s">
         <v>15</v>
@@ -4836,11 +4860,11 @@
       <c r="E3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>11</v>
+      <c r="F3" s="62" t="s">
+        <v>16</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>12</v>
@@ -4852,10 +4876,10 @@
     <row r="4" spans="1:9">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>9</v>
@@ -4863,11 +4887,11 @@
       <c r="E4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>11</v>
+      <c r="F4" s="62" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>12</v>
@@ -4879,22 +4903,22 @@
     <row r="5" spans="1:9">
       <c r="A5" s="11"/>
       <c r="B5" s="11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>11</v>
+      <c r="F5" s="62" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>12</v>
@@ -4906,22 +4930,22 @@
     <row r="6" spans="1:9">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>11</v>
+      <c r="F6" s="62" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>12</v>
@@ -4933,10 +4957,10 @@
     <row r="7" spans="1:9">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>9</v>
@@ -4944,11 +4968,11 @@
       <c r="E7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>11</v>
+      <c r="F7" s="62" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>12</v>
@@ -4960,22 +4984,22 @@
     <row r="8" spans="1:9">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>11</v>
+      <c r="F8" s="62" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>12</v>
@@ -4987,22 +5011,22 @@
     <row r="9" spans="1:9">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>11</v>
+      <c r="F9" s="62" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>12</v>
@@ -5014,10 +5038,10 @@
     <row r="10" spans="1:9">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>9</v>
@@ -5025,11 +5049,11 @@
       <c r="E10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>11</v>
+      <c r="F10" s="62" t="s">
+        <v>26</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>12</v>
@@ -5084,108 +5108,108 @@
   <sheetData>
     <row r="1" ht="14.75" spans="2:22">
       <c r="B1" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="6" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L2" s="8">
         <v>2</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O2" s="8">
         <v>10</v>
@@ -5197,16 +5221,16 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="T2" s="8">
         <v>30</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="V2" s="29">
         <v>30</v>
@@ -5214,43 +5238,43 @@
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="9" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L3" s="10">
         <v>1</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="O3" s="10">
         <v>15</v>
@@ -5262,16 +5286,16 @@
         <v>15</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="T3" s="10">
         <v>33</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="V3" s="30">
         <v>14</v>
@@ -5279,43 +5303,43 @@
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L4" s="10">
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="O4" s="10">
         <v>14</v>
@@ -5327,16 +5351,16 @@
         <v>14</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="T4" s="10">
         <v>43</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="V4" s="30">
         <v>23</v>
@@ -5344,43 +5368,43 @@
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L5" s="10">
         <v>2</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O5" s="10">
         <v>12</v>
@@ -5392,16 +5416,16 @@
         <v>12</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="T5" s="10">
         <v>23</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="V5" s="30">
         <v>20</v>
@@ -5409,43 +5433,43 @@
     </row>
     <row r="6" ht="14.75" spans="2:22">
       <c r="B6" s="12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L6" s="20">
         <v>2</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O6" s="20">
         <v>12</v>
@@ -5457,16 +5481,16 @@
         <v>15</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="S6" s="20" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="T6" s="20">
         <v>23</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="V6" s="18">
         <v>20</v>
@@ -5477,20 +5501,23 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
       <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
+      <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
+      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
-      <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
-      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
       <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
@@ -5498,11 +5525,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
-      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
-      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
       <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
@@ -5533,58 +5557,58 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5593,15 +5617,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5610,10 +5634,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -5621,10 +5645,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5661,52 +5685,52 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -5715,12 +5739,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -5729,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="4:5">
@@ -5737,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5773,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5787,10 +5811,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>50120</v>
@@ -5798,10 +5822,10 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>50120</v>
@@ -5819,7 +5843,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -5836,16 +5860,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5853,26 +5877,26 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5907,25 +5931,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5933,121 +5957,121 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D2" s="11">
         <v>50120</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="37"/>
       <c r="B3" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D3" s="11">
         <v>50120</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="37"/>
       <c r="B4" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11">
         <v>50120</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="37"/>
       <c r="B5" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D5" s="11">
         <v>50120</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="37"/>
       <c r="B6" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D6" s="11">
         <v>50120</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
@@ -6058,22 +6082,22 @@
         <v>50120</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
       <c r="A12" s="50" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6081,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6089,7 +6113,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6128,28 +6152,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="47" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:8">
@@ -6157,103 +6181,103 @@
         <v>2</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D2" s="41">
         <v>3434</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="37" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3" s="11">
         <v>50120</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="37" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" s="11">
         <v>50120</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:8">
       <c r="B5" s="38" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D5" s="13">
         <v>50120</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"nomor induk,kategori,nama lengkap,keperluan"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Pegawai,Tamu Dinas,Kunjungan Onsite,Kunjungan Online"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"nomor induk,kategori,nama lengkap,keperluan"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"nomor induk,nama lengkap,kategori,keperluan"</formula1>
@@ -6270,7 +6294,7 @@
   <dimension ref="B1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
@@ -6290,141 +6314,141 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="35" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="37" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D2" s="11">
         <v>9943238</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="11">
         <v>44324</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="37" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D4" s="46">
         <v>3460</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F4" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="46" t="s">
         <v>111</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>104</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="37" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D5" s="46">
         <v>123</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="37" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -6436,7 +6460,7 @@
     </row>
     <row r="7" ht="14.75" spans="2:10">
       <c r="B7" s="38" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -6482,48 +6506,48 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="31" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -6583,36 +6607,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/KeamananUAT.xlsx
+++ b/Filexel/KeamananUAT.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="345">
   <si>
     <t>filterColumnCari</t>
   </si>
@@ -1021,28 +1021,55 @@
     <t>26/01/2023 00:00:08'</t>
   </si>
   <si>
-    <t>JenisKeluarInput</t>
-  </si>
-  <si>
-    <t>TanggalKeluarInput</t>
-  </si>
-  <si>
-    <t>TanggalHarusKembaliInput</t>
-  </si>
-  <si>
-    <t>DeskripsiInput</t>
-  </si>
-  <si>
-    <t>PengawalInternalInput</t>
-  </si>
-  <si>
-    <t>PengawalExternalInput</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>ALYA BINTI GONGYOO</t>
+    <t>No sk</t>
+  </si>
+  <si>
+    <t>Jenis Keluar</t>
+  </si>
+  <si>
+    <t>Tanggal Keluar</t>
+  </si>
+  <si>
+    <t>Waktu Kembali</t>
+  </si>
+  <si>
+    <t>Deskripsi</t>
+  </si>
+  <si>
+    <t>Jenis Pengawal</t>
+  </si>
+  <si>
+    <t>Nama Pengawal External</t>
+  </si>
+  <si>
+    <t>Nama Pengawal Internal</t>
+  </si>
+  <si>
+    <t>DALIONO PRADIPTa BIN sugiono</t>
+  </si>
+  <si>
+    <t>SK.O943L/093</t>
+  </si>
+  <si>
+    <t>14/03/2023 10:27:02</t>
+  </si>
+  <si>
+    <t>15/03/2023 10:27:02</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Galih Rexy Hakiki</t>
+  </si>
+  <si>
+    <t>Daruna Kusumo</t>
+  </si>
+  <si>
+    <t>HUMAIRA NASYIAH S.KEd BIN zulahmad</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1077,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,7 +1087,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1068,6 +1095,12 @@
       <sz val="11"/>
       <color rgb="FF606266"/>
       <name val="Roboto"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1084,11 +1117,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
-      <name val="Calibri"/>
+      <color rgb="FF606266"/>
+      <name val="Roboto"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1540,7 +1571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1680,6 +1711,12 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1695,7 +1732,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1704,87 +1741,93 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="1" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="1" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1792,6 +1835,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -1803,17 +1849,17 @@
     <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2117,511 +2163,113 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="69" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="35.57642857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="27.433571428571426" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="24.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="7" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="24.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="89" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="C1" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="D1" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="E1" s="94" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="94" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="G1" s="50" t="s">
         <v>333</v>
       </c>
+      <c r="H1" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="91">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>304</v>
+      <c r="A2" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>339</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>310</v>
+        <v>341</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" s="96" t="s">
+        <v>343</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="95" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>339</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="68"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="68"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="68"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="68"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2643,12 +2291,12 @@
     <col min="2" max="2" style="7" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="31.433571428571426" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="69" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="70" width="15.719285714285713" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="18.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="7" width="24.862142857142857" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="7" width="23.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="7" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="69" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="70" width="26.005" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="7" width="17.719285714285714" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="7" width="5.862142857142857" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="7" width="27.862142857142857" customWidth="1" bestFit="1"/>
@@ -2658,53 +2306,53 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="61" t="s">
         <v>204</v>
       </c>
       <c r="L1" s="1"/>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="67" t="s">
         <v>207</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="68" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -2732,7 +2380,7 @@
         <v>184</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="62" t="s">
         <v>192</v>
       </c>
       <c r="N2" s="33" t="s">
@@ -2744,7 +2392,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -2775,7 +2423,7 @@
         <v>184</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="62" t="s">
         <v>195</v>
       </c>
       <c r="N3" s="33" t="s">
@@ -2787,7 +2435,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>198</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -2818,13 +2466,13 @@
         <v>184</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="61"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="33"/>
       <c r="O4" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>199</v>
       </c>
       <c r="C5" s="40"/>
@@ -2849,25 +2497,25 @@
       <c r="J5" s="41">
         <v>6</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="64" t="s">
         <v>184</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="62"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="40"/>
-      <c r="O5" s="63"/>
+      <c r="O5" s="64"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="68"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="68"/>
+      <c r="J6" s="69"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -2879,12 +2527,12 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="68"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="68"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2896,12 +2544,12 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="68"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="68"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2913,12 +2561,12 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="68"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="68"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2930,12 +2578,12 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="68"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="68"/>
+      <c r="J10" s="69"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2947,12 +2595,12 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="68"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2964,12 +2612,12 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="68"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2981,12 +2629,12 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="68"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="68"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2998,12 +2646,12 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="68"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="68"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3015,12 +2663,12 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="68"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="68"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -3032,12 +2680,12 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="68"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="68"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -3049,12 +2697,12 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="68"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="68"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -3066,12 +2714,12 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="68"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="68"/>
+      <c r="J18" s="69"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -3083,12 +2731,12 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="68"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="68"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -3100,12 +2748,12 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="68"/>
+      <c r="E20" s="69"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="68"/>
+      <c r="J20" s="69"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -3117,12 +2765,12 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="68"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="68"/>
+      <c r="J21" s="69"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -3134,12 +2782,12 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="68"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="68"/>
+      <c r="J22" s="69"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -3151,12 +2799,12 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="68"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="68"/>
+      <c r="J23" s="69"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3168,12 +2816,12 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="68"/>
+      <c r="E24" s="69"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="68"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3185,12 +2833,12 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="68"/>
+      <c r="E25" s="69"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="68"/>
+      <c r="J25" s="69"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3202,12 +2850,12 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="68"/>
+      <c r="E26" s="69"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="68"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -3219,12 +2867,12 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="68"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="68"/>
+      <c r="J27" s="69"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3236,12 +2884,12 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="68"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="68"/>
+      <c r="J28" s="69"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -3253,12 +2901,12 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="68"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="68"/>
+      <c r="J29" s="69"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -3270,12 +2918,12 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="68"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="68"/>
+      <c r="J30" s="69"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3287,12 +2935,12 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="68"/>
+      <c r="J31" s="69"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3304,12 +2952,12 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="68"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="68"/>
+      <c r="J32" s="69"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -3321,12 +2969,12 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="68"/>
+      <c r="E33" s="69"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="68"/>
+      <c r="J33" s="69"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3338,12 +2986,12 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="68"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="68"/>
+      <c r="J34" s="69"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3355,12 +3003,12 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="68"/>
+      <c r="E35" s="69"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="68"/>
+      <c r="J35" s="69"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3372,12 +3020,12 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="68"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="68"/>
+      <c r="J36" s="69"/>
       <c r="K36" s="1" t="s">
         <v>210</v>
       </c>
@@ -3499,7 +3147,7 @@
       <c r="F1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="5" t="s">
         <v>180</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3589,34 +3237,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="38.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="47" width="30.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="61" t="s">
         <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="33" t="s">
@@ -3634,7 +3282,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>175</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -3652,7 +3300,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>176</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -3664,7 +3312,7 @@
       <c r="E4" s="41">
         <v>5</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="64" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3704,10 +3352,10 @@
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3743,7 +3391,7 @@
       <c r="B2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="5" t="s">
         <v>154</v>
       </c>
       <c r="D2" s="5">
@@ -3833,46 +3481,46 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="47" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="14.719285714285713" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="47" width="28.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="61" t="s">
         <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="33" t="s">
@@ -3899,7 +3547,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -3924,7 +3572,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -3949,7 +3597,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -3968,7 +3616,7 @@
       <c r="H5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="64" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3997,7 +3645,7 @@
     <col min="7" max="7" style="7" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="55" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -4009,7 +3657,7 @@
       <c r="C1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -4027,7 +3675,7 @@
       <c r="I1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -4060,7 +3708,7 @@
       <c r="I2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>109</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -4093,7 +3741,7 @@
       <c r="I3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="54" t="s">
         <v>138</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -4126,7 +3774,7 @@
       <c r="I4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="54" t="s">
         <v>139</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -4159,7 +3807,7 @@
       <c r="I5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="54" t="s">
         <v>140</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -4183,44 +3831,44 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="26.862142857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="47" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="47" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="50" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4361,48 +4009,48 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="26.14785714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="53" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="47" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="55" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="47" width="14.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="50" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4432,7 +4080,7 @@
       <c r="I2" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>109</v>
       </c>
       <c r="K2" s="33" t="s">
@@ -4465,7 +4113,7 @@
       <c r="I3" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="54" t="s">
         <v>109</v>
       </c>
       <c r="K3" s="33" t="s">
@@ -4498,7 +4146,7 @@
       <c r="I4" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="54" t="s">
         <v>109</v>
       </c>
       <c r="K4" s="33" t="s">
@@ -4531,7 +4179,7 @@
       <c r="I5" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="54" t="s">
         <v>109</v>
       </c>
       <c r="K5" s="33" t="s">
@@ -4554,22 +4202,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="50" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="37.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="47" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="47" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="52" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="37.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="47" width="15.43357142857143" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="8" width="23.433571428571426" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="8" width="21.433571428571426" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="8" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="47" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="47" width="28.290714285714284" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="8" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="47" width="18.290714285714284" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="8" width="25.719285714285714" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="7" width="25.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
@@ -4578,7 +4226,7 @@
       <c r="A1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="48" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="33" t="s">
@@ -4593,7 +4241,7 @@
       <c r="F1" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="49" t="s">
         <v>80</v>
       </c>
       <c r="H1" s="33" t="s">
@@ -4602,13 +4250,13 @@
       <c r="I1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="49" t="s">
         <v>85</v>
       </c>
       <c r="M1" s="33" t="s">
@@ -4617,13 +4265,13 @@
       <c r="N1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="49" t="s">
         <v>88</v>
       </c>
       <c r="P1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="49" t="s">
         <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -4646,10 +4294,10 @@
       <c r="E2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="51">
         <v>2</v>
       </c>
       <c r="H2" s="33" t="s">
@@ -4670,7 +4318,7 @@
       <c r="M2" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="50" t="s">
         <v>51</v>
       </c>
       <c r="O2" s="34">
@@ -4700,10 +4348,10 @@
       <c r="E3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="51">
         <v>1</v>
       </c>
       <c r="H3" s="33" t="s">
@@ -4724,7 +4372,7 @@
       <c r="M3" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="50" t="s">
         <v>58</v>
       </c>
       <c r="O3" s="34">
@@ -4754,10 +4402,10 @@
       <c r="E4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="51">
         <v>3</v>
       </c>
       <c r="H4" s="33" t="s">
@@ -4778,7 +4426,7 @@
       <c r="M4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="50" t="s">
         <v>65</v>
       </c>
       <c r="O4" s="34">
@@ -4808,10 +4456,10 @@
       <c r="E5" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="51">
         <v>2</v>
       </c>
       <c r="H5" s="33" t="s">
@@ -4832,7 +4480,7 @@
       <c r="M5" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="50" t="s">
         <v>65</v>
       </c>
       <c r="O5" s="34">
@@ -4862,48 +4510,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="69" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="29.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="53" width="32.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="53" width="42.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="71" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="29.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="47" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="55" width="32.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="55" width="42.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="47" width="29.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="90" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="91" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="50" t="s">
         <v>301</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="88">
+      <c r="A2" s="93">
         <v>3</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -4915,10 +4563,10 @@
       <c r="D2" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="54" t="s">
         <v>304</v>
       </c>
       <c r="G2" s="33" t="s">
@@ -4932,7 +4580,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="33" t="s">
         <v>308</v>
       </c>
@@ -4942,10 +4590,10 @@
       <c r="D3" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="54" t="s">
         <v>310</v>
       </c>
       <c r="G3" s="33" t="s">
@@ -4959,7 +4607,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="33" t="s">
         <v>273</v>
       </c>
@@ -4969,10 +4617,10 @@
       <c r="D4" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="54" t="s">
         <v>312</v>
       </c>
       <c r="G4" s="33" t="s">
@@ -4986,7 +4634,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="33" t="s">
         <v>308</v>
       </c>
@@ -4996,10 +4644,10 @@
       <c r="D5" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="54" t="s">
         <v>315</v>
       </c>
       <c r="G5" s="33" t="s">
@@ -5013,7 +4661,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="33" t="s">
         <v>273</v>
       </c>
@@ -5023,10 +4671,10 @@
       <c r="D6" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="54" t="s">
         <v>318</v>
       </c>
       <c r="G6" s="33" t="s">
@@ -5040,7 +4688,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="33" t="s">
         <v>308</v>
       </c>
@@ -5050,10 +4698,10 @@
       <c r="D7" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="54" t="s">
         <v>320</v>
       </c>
       <c r="G7" s="33" t="s">
@@ -5067,7 +4715,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="33" t="s">
         <v>273</v>
       </c>
@@ -5077,10 +4725,10 @@
       <c r="D8" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="54" t="s">
         <v>323</v>
       </c>
       <c r="G8" s="33" t="s">
@@ -5094,7 +4742,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="33" t="s">
         <v>308</v>
       </c>
@@ -5104,10 +4752,10 @@
       <c r="D9" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="54" t="s">
         <v>325</v>
       </c>
       <c r="G9" s="33" t="s">
@@ -5121,7 +4769,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="33" t="s">
         <v>273</v>
       </c>
@@ -5131,10 +4779,10 @@
       <c r="D10" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="54" t="s">
         <v>327</v>
       </c>
       <c r="G10" s="33" t="s">
@@ -5164,26 +4812,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="47" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="12.290714285714287" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="47" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="47" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="47" width="21.005" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="47" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="47" width="14.005" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="8" width="27.719285714285714" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="8" width="24.290714285714284" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="8" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="47" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="47" width="23.005" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="47" width="16.290714285714284" customWidth="1" bestFit="1"/>
     <col min="22" max="22" style="8" width="15.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -5845,14 +5493,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="69" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="70" width="15.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="23.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="26.290714285714284" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5861,7 +5509,7 @@
       <c r="C1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="5" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5880,7 +5528,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="1" t="s">
         <v>293</v>
       </c>
@@ -5907,21 +5555,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="69" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="70" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="69" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="70" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="25.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="89" t="s">
         <v>286</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5949,20 +5597,20 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
@@ -5983,9 +5631,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="8" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="25.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="69" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="70" width="17.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="7" width="25.719285714285714" customWidth="1" bestFit="1"/>
@@ -5993,33 +5641,33 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="79" t="s">
         <v>269</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="81" t="s">
         <v>272</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="79">
+      <c r="A2" s="82">
         <v>2</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -6045,7 +5693,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="33" t="s">
         <v>263</v>
       </c>
@@ -6069,7 +5717,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="80"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="33" t="s">
         <v>278</v>
       </c>
@@ -6093,7 +5741,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="33" t="s">
         <v>280</v>
       </c>
@@ -6117,7 +5765,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="80"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="33" t="s">
         <v>282</v>
       </c>
@@ -6141,7 +5789,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="81"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="34">
@@ -6156,71 +5804,71 @@
       <c r="G7" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="64" t="s">
         <v>279</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="68"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="68"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="68"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="68"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="86" t="s">
         <v>283</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="68"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="88" t="s">
         <v>284</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="68"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6234,7 +5882,7 @@
         <v>273</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="68"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -6256,39 +5904,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="69" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="70" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="17.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="22.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="61" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6296,13 +5944,13 @@
       <c r="A2" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>259</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="77">
         <v>3434</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -6319,8 +5967,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="62" t="s">
         <v>263</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -6343,8 +5991,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="62" t="s">
         <v>264</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -6367,8 +6015,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="63" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -6407,57 +6055,57 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="69" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="34.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="71" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="47" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="47" width="21.290714285714284" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="7" width="21.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="59" t="s">
         <v>233</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="72" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="34">
@@ -6472,7 +6120,7 @@
       <c r="G2" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="72" t="s">
         <v>238</v>
       </c>
       <c r="I2" s="33"/>
@@ -6483,7 +6131,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>240</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -6501,7 +6149,7 @@
       <c r="G3" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="72" t="s">
         <v>238</v>
       </c>
       <c r="I3" s="33"/>
@@ -6510,25 +6158,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="73">
         <v>3460</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="72" t="s">
         <v>246</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="72" t="s">
         <v>238</v>
       </c>
       <c r="I4" s="33"/>
@@ -6537,25 +6185,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="73">
         <v>123</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="72" t="s">
         <v>249</v>
       </c>
       <c r="I5" s="33"/>
@@ -6564,14 +6212,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="62" t="s">
         <v>250</v>
       </c>
       <c r="C6" s="33"/>
-      <c r="D6" s="47"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="35"/>
@@ -6579,17 +6227,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="1"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>251</v>
       </c>
       <c r="C7" s="40"/>
-      <c r="D7" s="72"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
-      <c r="J7" s="63"/>
+      <c r="J7" s="64"/>
       <c r="K7" s="1"/>
     </row>
   </sheetData>
@@ -6609,36 +6257,36 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="69" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="47" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="71" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="50" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6671,7 +6319,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
-      <c r="E3" s="47"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
@@ -6681,7 +6329,7 @@
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
-      <c r="E4" s="47"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
@@ -6691,7 +6339,7 @@
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
-      <c r="E5" s="47"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -6733,7 +6381,7 @@
       <c r="D1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="5" t="s">
         <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
